--- a/raw_data/Metadata.xlsx
+++ b/raw_data/Metadata.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin_lokal\Dropbox\Uni\PDA_MAPS_bioinf\patho_ffpe_total\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TorpCat\Desktop\AAA\PDA_Demo\raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1309B016-3C0A-4BC3-8727-563E6A7BF200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -320,7 +321,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -677,22 +678,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O134"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="67" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J84" sqref="J84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -739,12 +740,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>434</v>
+        <v>326</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
@@ -753,7 +754,7 @@
         <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="F2" t="s">
         <v>19</v>
@@ -771,27 +772,27 @@
         <v>35</v>
       </c>
       <c r="K2">
-        <v>1.32</v>
+        <v>3.4649999999999999</v>
       </c>
       <c r="L2">
-        <v>2.64</v>
+        <v>4.62</v>
       </c>
       <c r="M2">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>435</v>
+        <v>327</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
@@ -800,7 +801,7 @@
         <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="F3" t="s">
         <v>19</v>
@@ -818,27 +819,27 @@
         <v>35</v>
       </c>
       <c r="K3">
-        <v>1.89</v>
+        <v>3.76</v>
       </c>
       <c r="L3">
-        <v>1.89</v>
+        <v>3.76</v>
       </c>
       <c r="M3">
         <v>1</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>436</v>
+        <v>328</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
@@ -847,7 +848,7 @@
         <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="F4" t="s">
         <v>19</v>
@@ -865,27 +866,27 @@
         <v>35</v>
       </c>
       <c r="K4">
-        <v>2.2599999999999998</v>
+        <v>3.9</v>
       </c>
       <c r="L4">
-        <v>2.2599999999999998</v>
+        <v>3.9</v>
       </c>
       <c r="M4">
         <v>1</v>
       </c>
       <c r="N4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>437</v>
+        <v>329</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
@@ -894,7 +895,7 @@
         <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="F5" t="s">
         <v>19</v>
@@ -912,27 +913,27 @@
         <v>35</v>
       </c>
       <c r="K5">
-        <v>1.52</v>
+        <v>3.39</v>
       </c>
       <c r="L5">
-        <v>1.52</v>
+        <v>6.78</v>
       </c>
       <c r="M5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>438</v>
+        <v>330</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
@@ -941,7 +942,7 @@
         <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="F6" t="s">
         <v>19</v>
@@ -959,27 +960,27 @@
         <v>35</v>
       </c>
       <c r="K6">
-        <v>2.08</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>2.08</v>
+        <v>3</v>
       </c>
       <c r="M6">
         <v>1</v>
       </c>
       <c r="N6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>439</v>
+        <v>331</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
         <v>16</v>
@@ -988,7 +989,7 @@
         <v>35</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="F7" t="s">
         <v>19</v>
@@ -1000,42 +1001,42 @@
         <v>37</v>
       </c>
       <c r="I7" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="J7">
         <v>35</v>
       </c>
       <c r="K7">
-        <v>1.34</v>
+        <v>3.2250000000000001</v>
       </c>
       <c r="L7">
-        <v>2.68</v>
+        <v>2.58</v>
       </c>
       <c r="M7">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="N7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>440</v>
+        <v>332</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="F8" t="s">
         <v>19</v>
@@ -1053,36 +1054,36 @@
         <v>35</v>
       </c>
       <c r="K8">
-        <v>1.73</v>
+        <v>2.8</v>
       </c>
       <c r="L8">
-        <v>1.73</v>
+        <v>5.6</v>
       </c>
       <c r="M8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>441</v>
+        <v>333</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="F9" t="s">
         <v>19</v>
@@ -1100,36 +1101,36 @@
         <v>35</v>
       </c>
       <c r="K9">
-        <v>1.82</v>
+        <v>3.76</v>
       </c>
       <c r="L9">
-        <v>1.82</v>
+        <v>7.52</v>
       </c>
       <c r="M9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>442</v>
+        <v>334</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="F10" t="s">
         <v>19</v>
@@ -1147,36 +1148,36 @@
         <v>35</v>
       </c>
       <c r="K10">
-        <v>2.16</v>
+        <v>3.4</v>
       </c>
       <c r="L10">
-        <v>2.16</v>
+        <v>2.72</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="N10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>443</v>
+        <v>335</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="C11" t="s">
         <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E11" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="F11" t="s">
         <v>19</v>
@@ -1188,42 +1189,42 @@
         <v>37</v>
       </c>
       <c r="I11" t="s">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="J11">
         <v>35</v>
       </c>
       <c r="K11">
-        <v>1.26</v>
+        <v>3.87</v>
       </c>
       <c r="L11">
-        <v>2.52</v>
+        <v>1.72</v>
       </c>
       <c r="M11">
-        <v>0.5</v>
+        <v>2.25</v>
       </c>
       <c r="N11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>444</v>
+        <v>462</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
         <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E12" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="F12" t="s">
         <v>19</v>
@@ -1241,36 +1242,36 @@
         <v>35</v>
       </c>
       <c r="K12">
-        <v>1.31</v>
+        <v>1.65</v>
       </c>
       <c r="L12">
-        <v>2.62</v>
+        <v>1.65</v>
       </c>
       <c r="M12">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="N12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>445</v>
+        <v>463</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
         <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E13" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="F13" t="s">
         <v>19</v>
@@ -1288,27 +1289,27 @@
         <v>35</v>
       </c>
       <c r="K13">
-        <v>2.42</v>
+        <v>1.54</v>
       </c>
       <c r="L13">
-        <v>2.42</v>
+        <v>3.08</v>
       </c>
       <c r="M13">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>446</v>
+        <v>474</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
@@ -1317,7 +1318,7 @@
         <v>35</v>
       </c>
       <c r="E14" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="F14" t="s">
         <v>19</v>
@@ -1335,27 +1336,27 @@
         <v>35</v>
       </c>
       <c r="K14">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="L14">
-        <v>1.36</v>
+        <v>1.84</v>
       </c>
       <c r="M14">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="N14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>447</v>
+        <v>475</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
         <v>16</v>
@@ -1364,7 +1365,7 @@
         <v>35</v>
       </c>
       <c r="E15" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="F15" t="s">
         <v>19</v>
@@ -1382,22 +1383,22 @@
         <v>35</v>
       </c>
       <c r="K15">
-        <v>1.42</v>
+        <v>1.56</v>
       </c>
       <c r="L15">
-        <v>1.42</v>
+        <v>2.08</v>
       </c>
       <c r="M15">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="N15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>448</v>
       </c>
@@ -1444,7 +1445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>449</v>
       </c>
@@ -1491,7 +1492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>450</v>
       </c>
@@ -1538,7 +1539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>451</v>
       </c>
@@ -1585,21 +1586,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="C20" t="s">
         <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E20" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="F20" t="s">
         <v>19</v>
@@ -1617,36 +1618,36 @@
         <v>35</v>
       </c>
       <c r="K20">
-        <v>1.1599999999999999</v>
+        <v>1.9</v>
       </c>
       <c r="L20">
-        <v>2.3199999999999998</v>
+        <v>3.8</v>
       </c>
       <c r="M20">
         <v>0.5</v>
       </c>
       <c r="N20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="C21" t="s">
         <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E21" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="F21" t="s">
         <v>19</v>
@@ -1664,10 +1665,10 @@
         <v>35</v>
       </c>
       <c r="K21">
-        <v>1.59</v>
+        <v>2.08</v>
       </c>
       <c r="L21">
-        <v>1.59</v>
+        <v>2.08</v>
       </c>
       <c r="M21">
         <v>1</v>
@@ -1679,21 +1680,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>454</v>
+        <v>439</v>
       </c>
       <c r="B22" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="C22" t="s">
         <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E22" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="F22" t="s">
         <v>19</v>
@@ -1711,36 +1712,36 @@
         <v>35</v>
       </c>
       <c r="K22">
-        <v>1.5</v>
+        <v>1.34</v>
       </c>
       <c r="L22">
-        <v>1.5</v>
+        <v>2.68</v>
       </c>
       <c r="M22">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="C23" t="s">
         <v>16</v>
       </c>
       <c r="D23" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E23" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="F23" t="s">
         <v>19</v>
@@ -1758,36 +1759,36 @@
         <v>35</v>
       </c>
       <c r="K23">
-        <v>1.24</v>
+        <v>1.42</v>
       </c>
       <c r="L23">
-        <v>2.48</v>
+        <v>1.42</v>
       </c>
       <c r="M23">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="N23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C24" t="s">
         <v>16</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F24" t="s">
         <v>19</v>
@@ -1805,36 +1806,36 @@
         <v>35</v>
       </c>
       <c r="K24">
-        <v>0.93500000000000005</v>
+        <v>1.99</v>
       </c>
       <c r="L24">
-        <v>1.87</v>
+        <v>1.99</v>
       </c>
       <c r="M24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="N24">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>457</v>
+        <v>473</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="C25" t="s">
         <v>16</v>
       </c>
       <c r="D25" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E25" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="F25" t="s">
         <v>19</v>
@@ -1852,27 +1853,27 @@
         <v>35</v>
       </c>
       <c r="K25">
-        <v>1.02</v>
+        <v>0.91500000000000004</v>
       </c>
       <c r="L25">
-        <v>2.04</v>
+        <v>1.22</v>
       </c>
       <c r="M25">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="N25">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>458</v>
+        <v>436</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C26" t="s">
         <v>16</v>
@@ -1881,7 +1882,7 @@
         <v>35</v>
       </c>
       <c r="E26" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="F26" t="s">
         <v>19</v>
@@ -1899,27 +1900,27 @@
         <v>35</v>
       </c>
       <c r="K26">
-        <v>1.49</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="L26">
-        <v>2.98</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="M26">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="N26">
         <v>2</v>
       </c>
       <c r="O26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>459</v>
+        <v>437</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C27" t="s">
         <v>16</v>
@@ -1928,7 +1929,7 @@
         <v>35</v>
       </c>
       <c r="E27" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
         <v>19</v>
@@ -1946,27 +1947,27 @@
         <v>35</v>
       </c>
       <c r="K27">
-        <v>1.69</v>
+        <v>1.52</v>
       </c>
       <c r="L27">
-        <v>3.38</v>
+        <v>1.52</v>
       </c>
       <c r="M27">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="N27">
         <v>2</v>
       </c>
       <c r="O27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C28" t="s">
         <v>16</v>
@@ -1975,7 +1976,7 @@
         <v>35</v>
       </c>
       <c r="E28" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F28" t="s">
         <v>19</v>
@@ -1993,27 +1994,27 @@
         <v>35</v>
       </c>
       <c r="K28">
-        <v>1.99</v>
+        <v>1.49</v>
       </c>
       <c r="L28">
-        <v>1.99</v>
+        <v>2.98</v>
       </c>
       <c r="M28">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O28">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C29" t="s">
         <v>16</v>
@@ -2022,7 +2023,7 @@
         <v>35</v>
       </c>
       <c r="E29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F29" t="s">
         <v>19</v>
@@ -2040,27 +2041,27 @@
         <v>35</v>
       </c>
       <c r="K29">
-        <v>1.9</v>
+        <v>1.69</v>
       </c>
       <c r="L29">
-        <v>3.8</v>
+        <v>3.38</v>
       </c>
       <c r="M29">
         <v>0.5</v>
       </c>
       <c r="N29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O29">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="C30" t="s">
         <v>16</v>
@@ -2069,7 +2070,7 @@
         <v>35</v>
       </c>
       <c r="E30" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="F30" t="s">
         <v>19</v>
@@ -2087,27 +2088,27 @@
         <v>35</v>
       </c>
       <c r="K30">
-        <v>1.65</v>
+        <v>0.91500000000000004</v>
       </c>
       <c r="L30">
-        <v>1.65</v>
+        <v>1.22</v>
       </c>
       <c r="M30">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="N30">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O30">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>463</v>
+        <v>434</v>
       </c>
       <c r="B31" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C31" t="s">
         <v>16</v>
@@ -2116,7 +2117,7 @@
         <v>35</v>
       </c>
       <c r="E31" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="F31" t="s">
         <v>19</v>
@@ -2134,36 +2135,36 @@
         <v>35</v>
       </c>
       <c r="K31">
-        <v>1.54</v>
+        <v>1.32</v>
       </c>
       <c r="L31">
-        <v>3.08</v>
+        <v>2.64</v>
       </c>
       <c r="M31">
         <v>0.5</v>
       </c>
       <c r="N31">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>464</v>
+        <v>435</v>
       </c>
       <c r="B32" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C32" t="s">
         <v>16</v>
       </c>
       <c r="D32" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E32" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="F32" t="s">
         <v>19</v>
@@ -2181,10 +2182,10 @@
         <v>35</v>
       </c>
       <c r="K32">
-        <v>1.56</v>
+        <v>1.89</v>
       </c>
       <c r="L32">
-        <v>1.56</v>
+        <v>1.89</v>
       </c>
       <c r="M32">
         <v>1</v>
@@ -2193,24 +2194,24 @@
         <v>1</v>
       </c>
       <c r="O32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>465</v>
+        <v>446</v>
       </c>
       <c r="B33" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C33" t="s">
         <v>16</v>
       </c>
       <c r="D33" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E33" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="F33" t="s">
         <v>19</v>
@@ -2228,10 +2229,10 @@
         <v>35</v>
       </c>
       <c r="K33">
-        <v>2.52</v>
+        <v>1.36</v>
       </c>
       <c r="L33">
-        <v>2.52</v>
+        <v>1.36</v>
       </c>
       <c r="M33">
         <v>1</v>
@@ -2240,24 +2241,24 @@
         <v>1</v>
       </c>
       <c r="O33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="B34" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="C34" t="s">
         <v>16</v>
       </c>
       <c r="D34" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E34" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F34" t="s">
         <v>19</v>
@@ -2275,36 +2276,36 @@
         <v>35</v>
       </c>
       <c r="K34">
-        <v>2.2200000000000002</v>
+        <v>1.1475</v>
       </c>
       <c r="L34">
-        <v>2.2200000000000002</v>
+        <v>1.53</v>
       </c>
       <c r="M34">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="N34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O34">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="B35" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="C35" t="s">
         <v>16</v>
       </c>
       <c r="D35" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E35" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F35" t="s">
         <v>19</v>
@@ -2322,118 +2323,118 @@
         <v>35</v>
       </c>
       <c r="K35">
-        <v>1.33</v>
+        <v>1.2375</v>
       </c>
       <c r="L35">
-        <v>1.33</v>
+        <v>1.65</v>
       </c>
       <c r="M35">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="N35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O35">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>468</v>
+        <v>532</v>
       </c>
       <c r="B36" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C36" t="s">
         <v>16</v>
       </c>
       <c r="D36" t="s">
-        <v>50</v>
-      </c>
-      <c r="E36" t="s">
-        <v>44</v>
+        <v>78</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
       </c>
       <c r="F36" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="G36" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="H36" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I36" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="J36">
         <v>35</v>
       </c>
       <c r="K36">
-        <v>1.73</v>
+        <v>0.159</v>
       </c>
       <c r="L36">
-        <v>1.73</v>
+        <v>0.106</v>
       </c>
       <c r="M36">
-        <v>1</v>
-      </c>
-      <c r="N36">
+        <v>1.5</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="O36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>533</v>
+      </c>
+      <c r="B37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" t="s">
+        <v>78</v>
+      </c>
+      <c r="E37">
         <v>2</v>
       </c>
-      <c r="O36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>469</v>
-      </c>
-      <c r="B37" t="s">
-        <v>27</v>
-      </c>
-      <c r="C37" t="s">
-        <v>16</v>
-      </c>
-      <c r="D37" t="s">
-        <v>50</v>
-      </c>
-      <c r="E37" t="s">
-        <v>18</v>
-      </c>
       <c r="F37" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="G37" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="H37" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I37" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="J37">
         <v>35</v>
       </c>
       <c r="K37">
-        <v>1.89</v>
+        <v>0.36399999999999999</v>
       </c>
       <c r="L37">
-        <v>1.89</v>
+        <v>0.36399999999999999</v>
       </c>
       <c r="M37">
         <v>1</v>
       </c>
-      <c r="N37">
-        <v>4</v>
+      <c r="N37" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="O37">
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>470</v>
+        <v>534</v>
       </c>
       <c r="B38" t="s">
         <v>56</v>
@@ -2442,527 +2443,527 @@
         <v>16</v>
       </c>
       <c r="D38" t="s">
-        <v>35</v>
-      </c>
-      <c r="E38" t="s">
-        <v>72</v>
+        <v>78</v>
+      </c>
+      <c r="E38">
+        <v>3</v>
       </c>
       <c r="F38" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="G38" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="H38" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I38" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="J38">
         <v>35</v>
       </c>
       <c r="K38">
-        <v>1.1475</v>
+        <v>0.17599999999999999</v>
       </c>
       <c r="L38">
-        <v>1.53</v>
+        <v>0.17599999999999999</v>
       </c>
       <c r="M38">
-        <v>0.75</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="O38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>535</v>
+      </c>
+      <c r="B39" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" t="s">
+        <v>78</v>
+      </c>
+      <c r="E39">
+        <v>4</v>
+      </c>
+      <c r="F39" t="s">
+        <v>79</v>
+      </c>
+      <c r="G39" t="s">
+        <v>79</v>
+      </c>
+      <c r="H39" t="s">
+        <v>21</v>
+      </c>
+      <c r="I39" t="s">
+        <v>22</v>
+      </c>
+      <c r="J39">
+        <v>35</v>
+      </c>
+      <c r="K39">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="L39">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="O39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>536</v>
+      </c>
+      <c r="B40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" t="s">
+        <v>78</v>
+      </c>
+      <c r="E40">
+        <v>5</v>
+      </c>
+      <c r="F40" t="s">
+        <v>79</v>
+      </c>
+      <c r="G40" t="s">
+        <v>79</v>
+      </c>
+      <c r="H40" t="s">
+        <v>21</v>
+      </c>
+      <c r="I40" t="s">
+        <v>22</v>
+      </c>
+      <c r="J40">
+        <v>35</v>
+      </c>
+      <c r="K40">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="L40">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="O40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>537</v>
+      </c>
+      <c r="B41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" t="s">
+        <v>78</v>
+      </c>
+      <c r="E41">
+        <v>6</v>
+      </c>
+      <c r="F41" t="s">
+        <v>79</v>
+      </c>
+      <c r="G41" t="s">
+        <v>79</v>
+      </c>
+      <c r="H41" t="s">
+        <v>21</v>
+      </c>
+      <c r="I41" t="s">
+        <v>22</v>
+      </c>
+      <c r="J41">
+        <v>35</v>
+      </c>
+      <c r="K41">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="L41">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="M41">
+        <v>0.5</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="O41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>538</v>
+      </c>
+      <c r="B42" t="s">
+        <v>66</v>
+      </c>
+      <c r="C42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" t="s">
+        <v>78</v>
+      </c>
+      <c r="E42">
+        <v>7</v>
+      </c>
+      <c r="F42" t="s">
+        <v>79</v>
+      </c>
+      <c r="G42" t="s">
+        <v>79</v>
+      </c>
+      <c r="H42" t="s">
+        <v>21</v>
+      </c>
+      <c r="I42" t="s">
+        <v>22</v>
+      </c>
+      <c r="J42">
+        <v>35</v>
+      </c>
+      <c r="K42">
+        <v>0.192</v>
+      </c>
+      <c r="L42">
+        <v>0.192</v>
+      </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
+      <c r="N42" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="O42">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>501</v>
+      </c>
+      <c r="B43" t="s">
+        <v>60</v>
+      </c>
+      <c r="C43" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E43" t="s">
+        <v>76</v>
+      </c>
+      <c r="F43" t="s">
+        <v>19</v>
+      </c>
+      <c r="G43" t="s">
+        <v>20</v>
+      </c>
+      <c r="H43" t="s">
+        <v>21</v>
+      </c>
+      <c r="I43" t="s">
+        <v>22</v>
+      </c>
+      <c r="J43">
+        <v>35</v>
+      </c>
+      <c r="K43">
+        <v>0.52</v>
+      </c>
+      <c r="L43">
+        <v>0.16</v>
+      </c>
+      <c r="M43">
+        <v>3.25</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="O43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>502</v>
+      </c>
+      <c r="B44" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" t="s">
+        <v>75</v>
+      </c>
+      <c r="E44" t="s">
+        <v>26</v>
+      </c>
+      <c r="F44" t="s">
+        <v>19</v>
+      </c>
+      <c r="G44" t="s">
+        <v>20</v>
+      </c>
+      <c r="H44" t="s">
+        <v>21</v>
+      </c>
+      <c r="I44" t="s">
+        <v>22</v>
+      </c>
+      <c r="J44">
+        <v>35</v>
+      </c>
+      <c r="K44">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="L44">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="M44">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>471</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="N44">
+        <v>5</v>
+      </c>
+      <c r="O44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>503</v>
+      </c>
+      <c r="B45" t="s">
+        <v>62</v>
+      </c>
+      <c r="C45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" t="s">
+        <v>75</v>
+      </c>
+      <c r="E45" t="s">
+        <v>67</v>
+      </c>
+      <c r="F45" t="s">
+        <v>19</v>
+      </c>
+      <c r="G45" t="s">
+        <v>20</v>
+      </c>
+      <c r="H45" t="s">
+        <v>21</v>
+      </c>
+      <c r="I45" t="s">
+        <v>22</v>
+      </c>
+      <c r="J45">
+        <v>35</v>
+      </c>
+      <c r="K45">
+        <v>0.224</v>
+      </c>
+      <c r="L45">
+        <v>0.224</v>
+      </c>
+      <c r="M45">
+        <v>1</v>
+      </c>
+      <c r="N45">
+        <v>5</v>
+      </c>
+      <c r="O45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>504</v>
+      </c>
+      <c r="B46" t="s">
+        <v>63</v>
+      </c>
+      <c r="C46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" t="s">
+        <v>75</v>
+      </c>
+      <c r="E46" t="s">
+        <v>30</v>
+      </c>
+      <c r="F46" t="s">
+        <v>19</v>
+      </c>
+      <c r="G46" t="s">
+        <v>20</v>
+      </c>
+      <c r="H46" t="s">
+        <v>21</v>
+      </c>
+      <c r="I46" t="s">
+        <v>22</v>
+      </c>
+      <c r="J46">
+        <v>35</v>
+      </c>
+      <c r="K46">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="L46">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="N46">
+        <v>5</v>
+      </c>
+      <c r="O46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>497</v>
+      </c>
+      <c r="B47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C47" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" t="s">
+        <v>75</v>
+      </c>
+      <c r="E47" t="s">
+        <v>70</v>
+      </c>
+      <c r="F47" t="s">
+        <v>19</v>
+      </c>
+      <c r="G47" t="s">
+        <v>20</v>
+      </c>
+      <c r="H47" t="s">
+        <v>21</v>
+      </c>
+      <c r="I47" t="s">
+        <v>22</v>
+      </c>
+      <c r="J47">
+        <v>35</v>
+      </c>
+      <c r="K47">
+        <v>3.2250000000000001</v>
+      </c>
+      <c r="L47">
+        <v>12.9</v>
+      </c>
+      <c r="M47">
+        <v>0.25</v>
+      </c>
+      <c r="N47">
+        <v>4</v>
+      </c>
+      <c r="O47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>498</v>
+      </c>
+      <c r="B48" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" t="s">
+        <v>75</v>
+      </c>
+      <c r="E48" t="s">
+        <v>53</v>
+      </c>
+      <c r="F48" t="s">
+        <v>19</v>
+      </c>
+      <c r="G48" t="s">
+        <v>20</v>
+      </c>
+      <c r="H48" t="s">
+        <v>21</v>
+      </c>
+      <c r="I48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J48">
+        <v>35</v>
+      </c>
+      <c r="K48">
+        <v>0.48</v>
+      </c>
+      <c r="L48">
+        <v>0.48</v>
+      </c>
+      <c r="M48">
+        <v>1</v>
+      </c>
+      <c r="N48">
+        <v>4</v>
+      </c>
+      <c r="O48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>499</v>
+      </c>
+      <c r="B49" t="s">
         <v>58</v>
       </c>
-      <c r="C39" t="s">
-        <v>16</v>
-      </c>
-      <c r="D39" t="s">
-        <v>35</v>
-      </c>
-      <c r="E39" t="s">
-        <v>71</v>
-      </c>
-      <c r="F39" t="s">
-        <v>19</v>
-      </c>
-      <c r="G39" t="s">
-        <v>20</v>
-      </c>
-      <c r="H39" t="s">
-        <v>37</v>
-      </c>
-      <c r="I39" t="s">
-        <v>38</v>
-      </c>
-      <c r="J39">
-        <v>35</v>
-      </c>
-      <c r="K39">
-        <v>1.2375</v>
-      </c>
-      <c r="L39">
-        <v>1.65</v>
-      </c>
-      <c r="M39">
-        <v>0.75</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>472</v>
-      </c>
-      <c r="B40" t="s">
-        <v>59</v>
-      </c>
-      <c r="C40" t="s">
-        <v>16</v>
-      </c>
-      <c r="D40" t="s">
-        <v>35</v>
-      </c>
-      <c r="E40" t="s">
-        <v>73</v>
-      </c>
-      <c r="F40" t="s">
-        <v>19</v>
-      </c>
-      <c r="G40" t="s">
-        <v>20</v>
-      </c>
-      <c r="H40" t="s">
-        <v>37</v>
-      </c>
-      <c r="I40" t="s">
-        <v>38</v>
-      </c>
-      <c r="J40">
-        <v>35</v>
-      </c>
-      <c r="K40">
-        <v>0.91500000000000004</v>
-      </c>
-      <c r="L40">
-        <v>1.22</v>
-      </c>
-      <c r="M40">
-        <v>0.75</v>
-      </c>
-      <c r="N40">
-        <v>2</v>
-      </c>
-      <c r="O40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>473</v>
-      </c>
-      <c r="B41" t="s">
-        <v>60</v>
-      </c>
-      <c r="C41" t="s">
-        <v>16</v>
-      </c>
-      <c r="D41" t="s">
-        <v>35</v>
-      </c>
-      <c r="E41" t="s">
-        <v>74</v>
-      </c>
-      <c r="F41" t="s">
-        <v>19</v>
-      </c>
-      <c r="G41" t="s">
-        <v>20</v>
-      </c>
-      <c r="H41" t="s">
-        <v>37</v>
-      </c>
-      <c r="I41" t="s">
-        <v>38</v>
-      </c>
-      <c r="J41">
-        <v>35</v>
-      </c>
-      <c r="K41">
-        <v>0.91500000000000004</v>
-      </c>
-      <c r="L41">
-        <v>1.22</v>
-      </c>
-      <c r="M41">
-        <v>0.75</v>
-      </c>
-      <c r="N41">
-        <v>3</v>
-      </c>
-      <c r="O41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>474</v>
-      </c>
-      <c r="B42" t="s">
-        <v>61</v>
-      </c>
-      <c r="C42" t="s">
-        <v>16</v>
-      </c>
-      <c r="D42" t="s">
-        <v>35</v>
-      </c>
-      <c r="E42" t="s">
-        <v>26</v>
-      </c>
-      <c r="F42" t="s">
-        <v>19</v>
-      </c>
-      <c r="G42" t="s">
-        <v>20</v>
-      </c>
-      <c r="H42" t="s">
-        <v>37</v>
-      </c>
-      <c r="I42" t="s">
-        <v>38</v>
-      </c>
-      <c r="J42">
-        <v>35</v>
-      </c>
-      <c r="K42">
-        <v>1.38</v>
-      </c>
-      <c r="L42">
-        <v>1.84</v>
-      </c>
-      <c r="M42">
-        <v>0.75</v>
-      </c>
-      <c r="N42">
-        <v>5</v>
-      </c>
-      <c r="O42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>475</v>
-      </c>
-      <c r="B43" t="s">
-        <v>62</v>
-      </c>
-      <c r="C43" t="s">
-        <v>16</v>
-      </c>
-      <c r="D43" t="s">
-        <v>35</v>
-      </c>
-      <c r="E43" t="s">
-        <v>30</v>
-      </c>
-      <c r="F43" t="s">
-        <v>19</v>
-      </c>
-      <c r="G43" t="s">
-        <v>20</v>
-      </c>
-      <c r="H43" t="s">
-        <v>37</v>
-      </c>
-      <c r="I43" t="s">
-        <v>38</v>
-      </c>
-      <c r="J43">
-        <v>35</v>
-      </c>
-      <c r="K43">
-        <v>1.56</v>
-      </c>
-      <c r="L43">
-        <v>2.08</v>
-      </c>
-      <c r="M43">
-        <v>0.75</v>
-      </c>
-      <c r="N43">
-        <v>5</v>
-      </c>
-      <c r="O43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>476</v>
-      </c>
-      <c r="B44" t="s">
-        <v>63</v>
-      </c>
-      <c r="C44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D44" t="s">
-        <v>50</v>
-      </c>
-      <c r="E44" t="s">
-        <v>72</v>
-      </c>
-      <c r="F44" t="s">
-        <v>19</v>
-      </c>
-      <c r="G44" t="s">
-        <v>20</v>
-      </c>
-      <c r="H44" t="s">
-        <v>37</v>
-      </c>
-      <c r="I44" t="s">
-        <v>38</v>
-      </c>
-      <c r="J44">
-        <v>35</v>
-      </c>
-      <c r="K44">
-        <v>1.2450000000000001</v>
-      </c>
-      <c r="L44">
-        <v>1.66</v>
-      </c>
-      <c r="M44">
-        <v>0.75</v>
-      </c>
-      <c r="N44">
-        <v>1</v>
-      </c>
-      <c r="O44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>477</v>
-      </c>
-      <c r="B45" t="s">
-        <v>64</v>
-      </c>
-      <c r="C45" t="s">
-        <v>16</v>
-      </c>
-      <c r="D45" t="s">
-        <v>50</v>
-      </c>
-      <c r="E45" t="s">
-        <v>36</v>
-      </c>
-      <c r="F45" t="s">
-        <v>19</v>
-      </c>
-      <c r="G45" t="s">
-        <v>20</v>
-      </c>
-      <c r="H45" t="s">
-        <v>37</v>
-      </c>
-      <c r="I45" t="s">
-        <v>38</v>
-      </c>
-      <c r="J45">
-        <v>35</v>
-      </c>
-      <c r="K45">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="L45">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="M45">
-        <v>1</v>
-      </c>
-      <c r="N45">
-        <v>1</v>
-      </c>
-      <c r="O45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>478</v>
-      </c>
-      <c r="B46" t="s">
-        <v>66</v>
-      </c>
-      <c r="C46" t="s">
-        <v>16</v>
-      </c>
-      <c r="D46" t="s">
-        <v>50</v>
-      </c>
-      <c r="E46" t="s">
-        <v>42</v>
-      </c>
-      <c r="F46" t="s">
-        <v>19</v>
-      </c>
-      <c r="G46" t="s">
-        <v>20</v>
-      </c>
-      <c r="H46" t="s">
-        <v>37</v>
-      </c>
-      <c r="I46" t="s">
-        <v>38</v>
-      </c>
-      <c r="J46">
-        <v>35</v>
-      </c>
-      <c r="K46">
-        <v>1.07</v>
-      </c>
-      <c r="L46">
-        <v>1.07</v>
-      </c>
-      <c r="M46">
-        <v>1</v>
-      </c>
-      <c r="N46">
-        <v>2</v>
-      </c>
-      <c r="O46">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>479</v>
-      </c>
-      <c r="B47" t="s">
-        <v>29</v>
-      </c>
-      <c r="C47" t="s">
-        <v>16</v>
-      </c>
-      <c r="D47" t="s">
-        <v>50</v>
-      </c>
-      <c r="E47" t="s">
-        <v>73</v>
-      </c>
-      <c r="F47" t="s">
-        <v>19</v>
-      </c>
-      <c r="G47" t="s">
-        <v>20</v>
-      </c>
-      <c r="H47" t="s">
-        <v>37</v>
-      </c>
-      <c r="I47" t="s">
-        <v>38</v>
-      </c>
-      <c r="J47">
-        <v>35</v>
-      </c>
-      <c r="K47">
-        <v>1.1174999999999999</v>
-      </c>
-      <c r="L47">
-        <v>1.49</v>
-      </c>
-      <c r="M47">
-        <v>0.75</v>
-      </c>
-      <c r="N47">
-        <v>2</v>
-      </c>
-      <c r="O47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>480</v>
-      </c>
-      <c r="B48" t="s">
-        <v>31</v>
-      </c>
-      <c r="C48" t="s">
-        <v>16</v>
-      </c>
-      <c r="D48" t="s">
-        <v>50</v>
-      </c>
-      <c r="E48" t="s">
-        <v>74</v>
-      </c>
-      <c r="F48" t="s">
-        <v>19</v>
-      </c>
-      <c r="G48" t="s">
-        <v>20</v>
-      </c>
-      <c r="H48" t="s">
-        <v>37</v>
-      </c>
-      <c r="I48" t="s">
-        <v>38</v>
-      </c>
-      <c r="J48">
-        <v>35</v>
-      </c>
-      <c r="K48">
-        <v>1.02</v>
-      </c>
-      <c r="L48">
-        <v>1.02</v>
-      </c>
-      <c r="M48">
-        <v>1</v>
-      </c>
-      <c r="N48">
-        <v>3</v>
-      </c>
-      <c r="O48">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>481</v>
-      </c>
-      <c r="B49" t="s">
-        <v>33</v>
-      </c>
       <c r="C49" t="s">
         <v>16</v>
       </c>
       <c r="D49" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E49" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="F49" t="s">
         <v>19</v>
@@ -2971,36 +2972,36 @@
         <v>20</v>
       </c>
       <c r="H49" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I49" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="J49">
         <v>35</v>
       </c>
       <c r="K49">
-        <v>0.248</v>
+        <v>0.44800000000000001</v>
       </c>
       <c r="L49">
-        <v>0.248</v>
+        <v>0.25600000000000001</v>
       </c>
       <c r="M49">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="N49">
         <v>4</v>
       </c>
       <c r="O49">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>482</v>
+        <v>500</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="C50" t="s">
         <v>16</v>
@@ -3009,7 +3010,7 @@
         <v>75</v>
       </c>
       <c r="E50" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="F50" t="s">
         <v>19</v>
@@ -3027,27 +3028,27 @@
         <v>35</v>
       </c>
       <c r="K50">
-        <v>0.25800000000000001</v>
+        <v>0.48749999999999999</v>
       </c>
       <c r="L50">
-        <v>0.17199999999999999</v>
+        <v>0.39</v>
       </c>
       <c r="M50">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="N50">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O50">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="B51" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="C51" t="s">
         <v>16</v>
@@ -3056,7 +3057,7 @@
         <v>75</v>
       </c>
       <c r="E51" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F51" t="s">
         <v>19</v>
@@ -3074,27 +3075,27 @@
         <v>35</v>
       </c>
       <c r="K51">
-        <v>0</v>
+        <v>0.23699999999999999</v>
       </c>
       <c r="L51">
-        <v>0</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="M51">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="N51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O51">
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="B52" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C52" t="s">
         <v>16</v>
@@ -3103,7 +3104,7 @@
         <v>75</v>
       </c>
       <c r="E52" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="F52" t="s">
         <v>19</v>
@@ -3121,27 +3122,27 @@
         <v>35</v>
       </c>
       <c r="K52">
-        <v>0</v>
+        <v>0.186</v>
       </c>
       <c r="L52">
-        <v>0</v>
+        <v>0.186</v>
       </c>
       <c r="M52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O52">
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="B53" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C53" t="s">
         <v>16</v>
@@ -3150,7 +3151,7 @@
         <v>75</v>
       </c>
       <c r="E53" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="F53" t="s">
         <v>19</v>
@@ -3168,27 +3169,27 @@
         <v>35</v>
       </c>
       <c r="K53">
-        <v>0.17399999999999999</v>
+        <v>0.38800000000000001</v>
       </c>
       <c r="L53">
-        <v>0.11600000000000001</v>
+        <v>0.77600000000000002</v>
       </c>
       <c r="M53">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="N53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O53">
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="B54" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C54" t="s">
         <v>16</v>
@@ -3197,7 +3198,7 @@
         <v>75</v>
       </c>
       <c r="E54" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F54" t="s">
         <v>19</v>
@@ -3215,27 +3216,27 @@
         <v>35</v>
       </c>
       <c r="K54">
-        <v>0.379</v>
+        <v>0.15</v>
       </c>
       <c r="L54">
-        <v>0.75800000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="M54">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="N54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O54">
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="B55" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="C55" t="s">
         <v>16</v>
@@ -3244,7 +3245,7 @@
         <v>75</v>
       </c>
       <c r="E55" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F55" t="s">
         <v>19</v>
@@ -3262,27 +3263,27 @@
         <v>35</v>
       </c>
       <c r="K55">
-        <v>0.48699999999999999</v>
+        <v>0.34100000000000003</v>
       </c>
       <c r="L55">
-        <v>0.97399999999999998</v>
+        <v>0.68200000000000005</v>
       </c>
       <c r="M55">
         <v>0.5</v>
       </c>
       <c r="N55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O55">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B56" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C56" t="s">
         <v>16</v>
@@ -3291,7 +3292,7 @@
         <v>75</v>
       </c>
       <c r="E56" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="F56" t="s">
         <v>19</v>
@@ -3309,13 +3310,13 @@
         <v>35</v>
       </c>
       <c r="K56">
-        <v>0</v>
+        <v>0.48699999999999999</v>
       </c>
       <c r="L56">
-        <v>0</v>
+        <v>0.97399999999999998</v>
       </c>
       <c r="M56">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="N56">
         <v>2</v>
@@ -3324,12 +3325,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B57" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C57" t="s">
         <v>16</v>
@@ -3338,7 +3339,7 @@
         <v>75</v>
       </c>
       <c r="E57" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F57" t="s">
         <v>19</v>
@@ -3362,7 +3363,7 @@
         <v>0</v>
       </c>
       <c r="M57">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N57">
         <v>2</v>
@@ -3371,12 +3372,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B58" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C58" t="s">
         <v>16</v>
@@ -3385,7 +3386,7 @@
         <v>75</v>
       </c>
       <c r="E58" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F58" t="s">
         <v>19</v>
@@ -3418,12 +3419,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B59" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C59" t="s">
         <v>16</v>
@@ -3432,7 +3433,7 @@
         <v>75</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="F59" t="s">
         <v>19</v>
@@ -3450,13 +3451,13 @@
         <v>35</v>
       </c>
       <c r="K59">
-        <v>0.126</v>
+        <v>0</v>
       </c>
       <c r="L59">
-        <v>0.126</v>
+        <v>0</v>
       </c>
       <c r="M59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N59">
         <v>2</v>
@@ -3465,12 +3466,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B60" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C60" t="s">
         <v>16</v>
@@ -3479,7 +3480,7 @@
         <v>75</v>
       </c>
       <c r="E60" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="F60" t="s">
         <v>19</v>
@@ -3497,27 +3498,27 @@
         <v>35</v>
       </c>
       <c r="K60">
-        <v>0.23699999999999999</v>
+        <v>0.126</v>
       </c>
       <c r="L60">
-        <v>0.47399999999999998</v>
+        <v>0.126</v>
       </c>
       <c r="M60">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="N60">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O60">
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="B61" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C61" t="s">
         <v>16</v>
@@ -3526,7 +3527,7 @@
         <v>75</v>
       </c>
       <c r="E61" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="F61" t="s">
         <v>19</v>
@@ -3544,27 +3545,27 @@
         <v>35</v>
       </c>
       <c r="K61">
-        <v>0.186</v>
+        <v>0.25800000000000001</v>
       </c>
       <c r="L61">
-        <v>0.186</v>
+        <v>0.17199999999999999</v>
       </c>
       <c r="M61">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="N61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O61">
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="B62" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C62" t="s">
         <v>16</v>
@@ -3573,7 +3574,7 @@
         <v>75</v>
       </c>
       <c r="E62" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="F62" t="s">
         <v>19</v>
@@ -3591,27 +3592,27 @@
         <v>35</v>
       </c>
       <c r="K62">
-        <v>0.38800000000000001</v>
+        <v>0</v>
       </c>
       <c r="L62">
-        <v>0.77600000000000002</v>
+        <v>0</v>
       </c>
       <c r="M62">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="N62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O62">
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="B63" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C63" t="s">
         <v>16</v>
@@ -3620,7 +3621,7 @@
         <v>75</v>
       </c>
       <c r="E63" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="F63" t="s">
         <v>19</v>
@@ -3638,27 +3639,27 @@
         <v>35</v>
       </c>
       <c r="K63">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="L63">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="M63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O63">
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="B64" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C64" t="s">
         <v>16</v>
@@ -3667,7 +3668,7 @@
         <v>75</v>
       </c>
       <c r="E64" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F64" t="s">
         <v>19</v>
@@ -3685,27 +3686,27 @@
         <v>35</v>
       </c>
       <c r="K64">
-        <v>0.34100000000000003</v>
+        <v>0.17399999999999999</v>
       </c>
       <c r="L64">
-        <v>0.68200000000000005</v>
+        <v>0.11600000000000001</v>
       </c>
       <c r="M64">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="N64">
+        <v>1</v>
+      </c>
+      <c r="O64">
         <v>3</v>
       </c>
-      <c r="O64">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="B65" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="C65" t="s">
         <v>16</v>
@@ -3714,374 +3715,374 @@
         <v>75</v>
       </c>
       <c r="E65" t="s">
+        <v>40</v>
+      </c>
+      <c r="F65" t="s">
+        <v>19</v>
+      </c>
+      <c r="G65" t="s">
+        <v>20</v>
+      </c>
+      <c r="H65" t="s">
+        <v>21</v>
+      </c>
+      <c r="I65" t="s">
+        <v>22</v>
+      </c>
+      <c r="J65">
+        <v>35</v>
+      </c>
+      <c r="K65">
+        <v>0.379</v>
+      </c>
+      <c r="L65">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="M65">
+        <v>0.5</v>
+      </c>
+      <c r="N65">
+        <v>1</v>
+      </c>
+      <c r="O65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>540</v>
+      </c>
+      <c r="B66" t="s">
+        <v>23</v>
+      </c>
+      <c r="C66" t="s">
+        <v>16</v>
+      </c>
+      <c r="D66" t="s">
+        <v>17</v>
+      </c>
+      <c r="E66" t="s">
+        <v>24</v>
+      </c>
+      <c r="F66" t="s">
+        <v>19</v>
+      </c>
+      <c r="G66" t="s">
+        <v>20</v>
+      </c>
+      <c r="H66" t="s">
+        <v>21</v>
+      </c>
+      <c r="I66" t="s">
+        <v>22</v>
+      </c>
+      <c r="J66">
+        <v>35</v>
+      </c>
+      <c r="K66">
+        <v>0.438</v>
+      </c>
+      <c r="L66">
+        <v>0.438</v>
+      </c>
+      <c r="M66">
+        <v>1</v>
+      </c>
+      <c r="N66">
+        <v>5</v>
+      </c>
+      <c r="O66">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>541</v>
+      </c>
+      <c r="B67" t="s">
+        <v>25</v>
+      </c>
+      <c r="C67" t="s">
+        <v>16</v>
+      </c>
+      <c r="D67" t="s">
+        <v>17</v>
+      </c>
+      <c r="E67" t="s">
+        <v>26</v>
+      </c>
+      <c r="F67" t="s">
+        <v>19</v>
+      </c>
+      <c r="G67" t="s">
+        <v>20</v>
+      </c>
+      <c r="H67" t="s">
+        <v>21</v>
+      </c>
+      <c r="I67" t="s">
+        <v>22</v>
+      </c>
+      <c r="J67">
+        <v>35</v>
+      </c>
+      <c r="K67">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="L67">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="M67">
+        <v>1</v>
+      </c>
+      <c r="N67">
+        <v>5</v>
+      </c>
+      <c r="O67">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>542</v>
+      </c>
+      <c r="B68" t="s">
+        <v>27</v>
+      </c>
+      <c r="C68" t="s">
+        <v>16</v>
+      </c>
+      <c r="D68" t="s">
+        <v>17</v>
+      </c>
+      <c r="E68" t="s">
+        <v>28</v>
+      </c>
+      <c r="F68" t="s">
+        <v>19</v>
+      </c>
+      <c r="G68" t="s">
+        <v>20</v>
+      </c>
+      <c r="H68" t="s">
+        <v>21</v>
+      </c>
+      <c r="I68" t="s">
+        <v>22</v>
+      </c>
+      <c r="J68">
+        <v>35</v>
+      </c>
+      <c r="K68">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="L68">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="M68">
+        <v>0.25</v>
+      </c>
+      <c r="N68">
+        <v>5</v>
+      </c>
+      <c r="O68">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>543</v>
+      </c>
+      <c r="B69" t="s">
+        <v>29</v>
+      </c>
+      <c r="C69" t="s">
+        <v>16</v>
+      </c>
+      <c r="D69" t="s">
+        <v>17</v>
+      </c>
+      <c r="E69" t="s">
+        <v>30</v>
+      </c>
+      <c r="F69" t="s">
+        <v>19</v>
+      </c>
+      <c r="G69" t="s">
+        <v>20</v>
+      </c>
+      <c r="H69" t="s">
+        <v>21</v>
+      </c>
+      <c r="I69" t="s">
+        <v>22</v>
+      </c>
+      <c r="J69">
+        <v>35</v>
+      </c>
+      <c r="K69">
+        <v>0.217</v>
+      </c>
+      <c r="L69">
+        <v>0.124</v>
+      </c>
+      <c r="M69">
+        <v>1.75</v>
+      </c>
+      <c r="N69">
+        <v>5</v>
+      </c>
+      <c r="O69">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>520</v>
+      </c>
+      <c r="B70" t="s">
+        <v>25</v>
+      </c>
+      <c r="C70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D70" t="s">
+        <v>17</v>
+      </c>
+      <c r="E70" t="s">
         <v>70</v>
       </c>
-      <c r="F65" t="s">
-        <v>19</v>
-      </c>
-      <c r="G65" t="s">
-        <v>20</v>
-      </c>
-      <c r="H65" t="s">
-        <v>21</v>
-      </c>
-      <c r="I65" t="s">
-        <v>22</v>
-      </c>
-      <c r="J65">
-        <v>35</v>
-      </c>
-      <c r="K65">
-        <v>3.2250000000000001</v>
-      </c>
-      <c r="L65">
-        <v>12.9</v>
-      </c>
-      <c r="M65">
+      <c r="F70" t="s">
+        <v>19</v>
+      </c>
+      <c r="G70" t="s">
+        <v>20</v>
+      </c>
+      <c r="H70" t="s">
+        <v>21</v>
+      </c>
+      <c r="I70" t="s">
+        <v>22</v>
+      </c>
+      <c r="J70">
+        <v>35</v>
+      </c>
+      <c r="K70">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="L70">
+        <v>0.372</v>
+      </c>
+      <c r="M70">
+        <v>0.75</v>
+      </c>
+      <c r="N70">
+        <v>4</v>
+      </c>
+      <c r="O70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>521</v>
+      </c>
+      <c r="B71" t="s">
+        <v>27</v>
+      </c>
+      <c r="C71" t="s">
+        <v>16</v>
+      </c>
+      <c r="D71" t="s">
+        <v>17</v>
+      </c>
+      <c r="E71" t="s">
+        <v>53</v>
+      </c>
+      <c r="F71" t="s">
+        <v>19</v>
+      </c>
+      <c r="G71" t="s">
+        <v>20</v>
+      </c>
+      <c r="H71" t="s">
+        <v>21</v>
+      </c>
+      <c r="I71" t="s">
+        <v>22</v>
+      </c>
+      <c r="J71">
+        <v>35</v>
+      </c>
+      <c r="K71">
+        <v>0.2215</v>
+      </c>
+      <c r="L71">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="M71">
         <v>0.25</v>
       </c>
-      <c r="N65">
+      <c r="N71">
         <v>4</v>
       </c>
-      <c r="O65">
+      <c r="O71">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>522</v>
+      </c>
+      <c r="B72" t="s">
+        <v>56</v>
+      </c>
+      <c r="C72" t="s">
+        <v>16</v>
+      </c>
+      <c r="D72" t="s">
+        <v>17</v>
+      </c>
+      <c r="E72" t="s">
+        <v>54</v>
+      </c>
+      <c r="F72" t="s">
+        <v>19</v>
+      </c>
+      <c r="G72" t="s">
+        <v>20</v>
+      </c>
+      <c r="H72" t="s">
+        <v>21</v>
+      </c>
+      <c r="I72" t="s">
+        <v>22</v>
+      </c>
+      <c r="J72">
+        <v>35</v>
+      </c>
+      <c r="K72">
+        <v>0.253</v>
+      </c>
+      <c r="L72">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="M72">
+        <v>0.5</v>
+      </c>
+      <c r="N72">
         <v>4</v>
       </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>498</v>
-      </c>
-      <c r="B66" t="s">
-        <v>56</v>
-      </c>
-      <c r="C66" t="s">
-        <v>16</v>
-      </c>
-      <c r="D66" t="s">
-        <v>75</v>
-      </c>
-      <c r="E66" t="s">
-        <v>53</v>
-      </c>
-      <c r="F66" t="s">
-        <v>19</v>
-      </c>
-      <c r="G66" t="s">
-        <v>20</v>
-      </c>
-      <c r="H66" t="s">
-        <v>21</v>
-      </c>
-      <c r="I66" t="s">
-        <v>22</v>
-      </c>
-      <c r="J66">
-        <v>35</v>
-      </c>
-      <c r="K66">
-        <v>0.48</v>
-      </c>
-      <c r="L66">
-        <v>0.48</v>
-      </c>
-      <c r="M66">
-        <v>1</v>
-      </c>
-      <c r="N66">
-        <v>4</v>
-      </c>
-      <c r="O66">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>499</v>
-      </c>
-      <c r="B67" t="s">
+      <c r="O72">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>523</v>
+      </c>
+      <c r="B73" t="s">
         <v>58</v>
-      </c>
-      <c r="C67" t="s">
-        <v>16</v>
-      </c>
-      <c r="D67" t="s">
-        <v>75</v>
-      </c>
-      <c r="E67" t="s">
-        <v>54</v>
-      </c>
-      <c r="F67" t="s">
-        <v>19</v>
-      </c>
-      <c r="G67" t="s">
-        <v>20</v>
-      </c>
-      <c r="H67" t="s">
-        <v>21</v>
-      </c>
-      <c r="I67" t="s">
-        <v>22</v>
-      </c>
-      <c r="J67">
-        <v>35</v>
-      </c>
-      <c r="K67">
-        <v>0.44800000000000001</v>
-      </c>
-      <c r="L67">
-        <v>0.25600000000000001</v>
-      </c>
-      <c r="M67">
-        <v>1.75</v>
-      </c>
-      <c r="N67">
-        <v>4</v>
-      </c>
-      <c r="O67">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>500</v>
-      </c>
-      <c r="B68" t="s">
-        <v>59</v>
-      </c>
-      <c r="C68" t="s">
-        <v>16</v>
-      </c>
-      <c r="D68" t="s">
-        <v>75</v>
-      </c>
-      <c r="E68" t="s">
-        <v>55</v>
-      </c>
-      <c r="F68" t="s">
-        <v>19</v>
-      </c>
-      <c r="G68" t="s">
-        <v>20</v>
-      </c>
-      <c r="H68" t="s">
-        <v>21</v>
-      </c>
-      <c r="I68" t="s">
-        <v>22</v>
-      </c>
-      <c r="J68">
-        <v>35</v>
-      </c>
-      <c r="K68">
-        <v>0.48749999999999999</v>
-      </c>
-      <c r="L68">
-        <v>0.39</v>
-      </c>
-      <c r="M68">
-        <v>1.25</v>
-      </c>
-      <c r="N68">
-        <v>4</v>
-      </c>
-      <c r="O68">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>501</v>
-      </c>
-      <c r="B69" t="s">
-        <v>60</v>
-      </c>
-      <c r="C69" t="s">
-        <v>16</v>
-      </c>
-      <c r="D69" t="s">
-        <v>75</v>
-      </c>
-      <c r="E69" t="s">
-        <v>76</v>
-      </c>
-      <c r="F69" t="s">
-        <v>19</v>
-      </c>
-      <c r="G69" t="s">
-        <v>20</v>
-      </c>
-      <c r="H69" t="s">
-        <v>21</v>
-      </c>
-      <c r="I69" t="s">
-        <v>22</v>
-      </c>
-      <c r="J69">
-        <v>35</v>
-      </c>
-      <c r="K69">
-        <v>0.52</v>
-      </c>
-      <c r="L69">
-        <v>0.16</v>
-      </c>
-      <c r="M69">
-        <v>3.25</v>
-      </c>
-      <c r="N69" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="O69">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>502</v>
-      </c>
-      <c r="B70" t="s">
-        <v>61</v>
-      </c>
-      <c r="C70" t="s">
-        <v>16</v>
-      </c>
-      <c r="D70" t="s">
-        <v>75</v>
-      </c>
-      <c r="E70" t="s">
-        <v>26</v>
-      </c>
-      <c r="F70" t="s">
-        <v>19</v>
-      </c>
-      <c r="G70" t="s">
-        <v>20</v>
-      </c>
-      <c r="H70" t="s">
-        <v>21</v>
-      </c>
-      <c r="I70" t="s">
-        <v>22</v>
-      </c>
-      <c r="J70">
-        <v>35</v>
-      </c>
-      <c r="K70">
-        <v>0.46800000000000003</v>
-      </c>
-      <c r="L70">
-        <v>0.23400000000000001</v>
-      </c>
-      <c r="M70">
-        <v>2</v>
-      </c>
-      <c r="N70">
-        <v>5</v>
-      </c>
-      <c r="O70">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>503</v>
-      </c>
-      <c r="B71" t="s">
-        <v>62</v>
-      </c>
-      <c r="C71" t="s">
-        <v>16</v>
-      </c>
-      <c r="D71" t="s">
-        <v>75</v>
-      </c>
-      <c r="E71" t="s">
-        <v>67</v>
-      </c>
-      <c r="F71" t="s">
-        <v>19</v>
-      </c>
-      <c r="G71" t="s">
-        <v>20</v>
-      </c>
-      <c r="H71" t="s">
-        <v>21</v>
-      </c>
-      <c r="I71" t="s">
-        <v>22</v>
-      </c>
-      <c r="J71">
-        <v>35</v>
-      </c>
-      <c r="K71">
-        <v>0.224</v>
-      </c>
-      <c r="L71">
-        <v>0.224</v>
-      </c>
-      <c r="M71">
-        <v>1</v>
-      </c>
-      <c r="N71">
-        <v>5</v>
-      </c>
-      <c r="O71">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>504</v>
-      </c>
-      <c r="B72" t="s">
-        <v>63</v>
-      </c>
-      <c r="C72" t="s">
-        <v>16</v>
-      </c>
-      <c r="D72" t="s">
-        <v>75</v>
-      </c>
-      <c r="E72" t="s">
-        <v>30</v>
-      </c>
-      <c r="F72" t="s">
-        <v>19</v>
-      </c>
-      <c r="G72" t="s">
-        <v>20</v>
-      </c>
-      <c r="H72" t="s">
-        <v>21</v>
-      </c>
-      <c r="I72" t="s">
-        <v>22</v>
-      </c>
-      <c r="J72">
-        <v>35</v>
-      </c>
-      <c r="K72">
-        <v>0.35199999999999998</v>
-      </c>
-      <c r="L72">
-        <v>0.35199999999999998</v>
-      </c>
-      <c r="M72">
-        <v>1</v>
-      </c>
-      <c r="N72">
-        <v>5</v>
-      </c>
-      <c r="O72">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>505</v>
-      </c>
-      <c r="B73" t="s">
-        <v>64</v>
       </c>
       <c r="C73" t="s">
         <v>16</v>
@@ -4090,7 +4091,7 @@
         <v>17</v>
       </c>
       <c r="E73" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="F73" t="s">
         <v>19</v>
@@ -4108,27 +4109,27 @@
         <v>35</v>
       </c>
       <c r="K73">
-        <v>0.36599999999999999</v>
+        <v>0.316</v>
       </c>
       <c r="L73">
-        <v>0.122</v>
+        <v>0.158</v>
       </c>
       <c r="M73">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N73">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O73">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>506</v>
+        <v>539</v>
       </c>
       <c r="B74" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="C74" t="s">
         <v>16</v>
@@ -4137,7 +4138,7 @@
         <v>17</v>
       </c>
       <c r="E74" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="F74" t="s">
         <v>19</v>
@@ -4155,27 +4156,27 @@
         <v>35</v>
       </c>
       <c r="K74">
-        <v>0.25900000000000001</v>
+        <v>0</v>
       </c>
       <c r="L74">
-        <v>0.51800000000000002</v>
+        <v>0</v>
       </c>
       <c r="M74">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="N74">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O74">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="B75" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C75" t="s">
         <v>16</v>
@@ -4184,7 +4185,7 @@
         <v>17</v>
       </c>
       <c r="E75" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="F75" t="s">
         <v>19</v>
@@ -4202,27 +4203,27 @@
         <v>35</v>
       </c>
       <c r="K75">
-        <v>0.42599999999999999</v>
+        <v>0.3725</v>
       </c>
       <c r="L75">
-        <v>0.14199999999999999</v>
+        <v>1.49</v>
       </c>
       <c r="M75">
+        <v>0.25</v>
+      </c>
+      <c r="N75">
         <v>3</v>
       </c>
-      <c r="N75">
-        <v>1</v>
-      </c>
       <c r="O75">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="B76" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="C76" t="s">
         <v>16</v>
@@ -4231,7 +4232,7 @@
         <v>17</v>
       </c>
       <c r="E76" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="F76" t="s">
         <v>19</v>
@@ -4249,27 +4250,27 @@
         <v>35</v>
       </c>
       <c r="K76">
-        <v>0.27500000000000002</v>
+        <v>0</v>
       </c>
       <c r="L76">
-        <v>0.55000000000000004</v>
+        <v>0</v>
       </c>
       <c r="M76">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="N76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O76">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="B77" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C77" t="s">
         <v>16</v>
@@ -4278,7 +4279,7 @@
         <v>17</v>
       </c>
       <c r="E77" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="F77" t="s">
         <v>19</v>
@@ -4296,27 +4297,27 @@
         <v>35</v>
       </c>
       <c r="K77">
-        <v>0.47599999999999998</v>
+        <v>0.252</v>
       </c>
       <c r="L77">
-        <v>0.47599999999999998</v>
+        <v>0.126</v>
       </c>
       <c r="M77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O77">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="B78" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C78" t="s">
         <v>16</v>
@@ -4325,7 +4326,7 @@
         <v>17</v>
       </c>
       <c r="E78" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F78" t="s">
         <v>19</v>
@@ -4343,27 +4344,27 @@
         <v>35</v>
       </c>
       <c r="K78">
-        <v>0.21299999999999999</v>
+        <v>0.28499999999999998</v>
       </c>
       <c r="L78">
-        <v>0.14199999999999999</v>
+        <v>0.114</v>
       </c>
       <c r="M78">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="N78">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O78">
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="B79" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C79" t="s">
         <v>16</v>
@@ -4372,7 +4373,7 @@
         <v>17</v>
       </c>
       <c r="E79" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="F79" t="s">
         <v>19</v>
@@ -4390,27 +4391,27 @@
         <v>35</v>
       </c>
       <c r="K79">
-        <v>0.17100000000000001</v>
+        <v>0.24</v>
       </c>
       <c r="L79">
-        <v>0.114</v>
+        <v>0.12</v>
       </c>
       <c r="M79">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="N79">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O79">
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B80" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C80" t="s">
         <v>16</v>
@@ -4419,7 +4420,7 @@
         <v>17</v>
       </c>
       <c r="E80" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="F80" t="s">
         <v>19</v>
@@ -4437,13 +4438,13 @@
         <v>35</v>
       </c>
       <c r="K80">
-        <v>0</v>
+        <v>0.21299999999999999</v>
       </c>
       <c r="L80">
-        <v>0</v>
+        <v>0.14199999999999999</v>
       </c>
       <c r="M80">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="N80">
         <v>2</v>
@@ -4452,12 +4453,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B81" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C81" t="s">
         <v>16</v>
@@ -4466,7 +4467,7 @@
         <v>17</v>
       </c>
       <c r="E81" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F81" t="s">
         <v>19</v>
@@ -4484,13 +4485,13 @@
         <v>35</v>
       </c>
       <c r="K81">
-        <v>0.19750000000000001</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="L81">
-        <v>0.79</v>
+        <v>0.114</v>
       </c>
       <c r="M81">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="N81">
         <v>2</v>
@@ -4499,12 +4500,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B82" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C82" t="s">
         <v>16</v>
@@ -4513,7 +4514,7 @@
         <v>17</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="F82" t="s">
         <v>19</v>
@@ -4531,13 +4532,13 @@
         <v>35</v>
       </c>
       <c r="K82">
-        <v>0.21299999999999999</v>
+        <v>0</v>
       </c>
       <c r="L82">
-        <v>0.14199999999999999</v>
+        <v>0</v>
       </c>
       <c r="M82">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="N82">
         <v>2</v>
@@ -4546,12 +4547,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B83" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C83" t="s">
         <v>16</v>
@@ -4560,7 +4561,7 @@
         <v>17</v>
       </c>
       <c r="E83" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F83" t="s">
         <v>19</v>
@@ -4578,27 +4579,27 @@
         <v>35</v>
       </c>
       <c r="K83">
-        <v>0.3725</v>
+        <v>0.19750000000000001</v>
       </c>
       <c r="L83">
-        <v>1.49</v>
+        <v>0.79</v>
       </c>
       <c r="M83">
         <v>0.25</v>
       </c>
       <c r="N83">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O83">
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B84" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C84" t="s">
         <v>16</v>
@@ -4607,7 +4608,7 @@
         <v>17</v>
       </c>
       <c r="E84" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F84" t="s">
         <v>19</v>
@@ -4625,27 +4626,27 @@
         <v>35</v>
       </c>
       <c r="K84">
-        <v>0</v>
+        <v>0.21299999999999999</v>
       </c>
       <c r="L84">
-        <v>0</v>
+        <v>0.14199999999999999</v>
       </c>
       <c r="M84">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="N84">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O84">
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="B85" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="C85" t="s">
         <v>16</v>
@@ -4654,7 +4655,7 @@
         <v>17</v>
       </c>
       <c r="E85" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="F85" t="s">
         <v>19</v>
@@ -4672,27 +4673,27 @@
         <v>35</v>
       </c>
       <c r="K85">
-        <v>0.252</v>
+        <v>0.36599999999999999</v>
       </c>
       <c r="L85">
-        <v>0.126</v>
+        <v>0.122</v>
       </c>
       <c r="M85">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N85">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O85">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="B86" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="C86" t="s">
         <v>16</v>
@@ -4701,7 +4702,7 @@
         <v>17</v>
       </c>
       <c r="E86" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="F86" t="s">
         <v>19</v>
@@ -4719,27 +4720,27 @@
         <v>35</v>
       </c>
       <c r="K86">
-        <v>0.28499999999999998</v>
+        <v>0.25900000000000001</v>
       </c>
       <c r="L86">
-        <v>0.114</v>
+        <v>0.51800000000000002</v>
       </c>
       <c r="M86">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="N86">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O86">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="B87" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C87" t="s">
         <v>16</v>
@@ -4748,7 +4749,7 @@
         <v>17</v>
       </c>
       <c r="E87" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="F87" t="s">
         <v>19</v>
@@ -4766,27 +4767,27 @@
         <v>35</v>
       </c>
       <c r="K87">
-        <v>0.24</v>
+        <v>0.42599999999999999</v>
       </c>
       <c r="L87">
-        <v>0.12</v>
+        <v>0.14199999999999999</v>
       </c>
       <c r="M87">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N87">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O87">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="B88" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C88" t="s">
         <v>16</v>
@@ -4795,7 +4796,7 @@
         <v>17</v>
       </c>
       <c r="E88" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="F88" t="s">
         <v>19</v>
@@ -4813,27 +4814,27 @@
         <v>35</v>
       </c>
       <c r="K88">
-        <v>0.27900000000000003</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="L88">
-        <v>0.372</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="M88">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="N88">
+        <v>1</v>
+      </c>
+      <c r="O88">
         <v>4</v>
       </c>
-      <c r="O88">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="B89" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C89" t="s">
         <v>16</v>
@@ -4842,7 +4843,7 @@
         <v>17</v>
       </c>
       <c r="E89" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="F89" t="s">
         <v>19</v>
@@ -4860,835 +4861,835 @@
         <v>35</v>
       </c>
       <c r="K89">
-        <v>0.2215</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="L89">
-        <v>0.88600000000000001</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="M89">
+        <v>1</v>
+      </c>
+      <c r="N89">
+        <v>1</v>
+      </c>
+      <c r="O89">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>369</v>
+      </c>
+      <c r="B90" t="s">
+        <v>34</v>
+      </c>
+      <c r="C90" t="s">
+        <v>16</v>
+      </c>
+      <c r="D90" t="s">
+        <v>93</v>
+      </c>
+      <c r="E90">
+        <v>3</v>
+      </c>
+      <c r="F90" t="s">
+        <v>19</v>
+      </c>
+      <c r="G90" t="s">
+        <v>20</v>
+      </c>
+      <c r="H90" t="s">
+        <v>21</v>
+      </c>
+      <c r="I90" t="s">
+        <v>22</v>
+      </c>
+      <c r="J90">
+        <v>35</v>
+      </c>
+      <c r="K90">
+        <v>0.60160000000000002</v>
+      </c>
+      <c r="L90">
+        <v>0.752</v>
+      </c>
+      <c r="M90">
+        <v>0.8</v>
+      </c>
+      <c r="N90">
+        <v>7</v>
+      </c>
+      <c r="O90">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>370</v>
+      </c>
+      <c r="B91" t="s">
+        <v>39</v>
+      </c>
+      <c r="C91" t="s">
+        <v>16</v>
+      </c>
+      <c r="D91" t="s">
+        <v>93</v>
+      </c>
+      <c r="E91">
+        <v>4</v>
+      </c>
+      <c r="F91" t="s">
+        <v>19</v>
+      </c>
+      <c r="G91" t="s">
+        <v>20</v>
+      </c>
+      <c r="H91" t="s">
+        <v>21</v>
+      </c>
+      <c r="I91" t="s">
+        <v>22</v>
+      </c>
+      <c r="J91">
+        <v>35</v>
+      </c>
+      <c r="K91">
+        <v>0.68149999999999999</v>
+      </c>
+      <c r="L91">
+        <v>0.47</v>
+      </c>
+      <c r="M91">
+        <v>1.45</v>
+      </c>
+      <c r="N91">
+        <v>7</v>
+      </c>
+      <c r="O91">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>371</v>
+      </c>
+      <c r="B92" t="s">
+        <v>41</v>
+      </c>
+      <c r="C92" t="s">
+        <v>16</v>
+      </c>
+      <c r="D92" t="s">
+        <v>93</v>
+      </c>
+      <c r="E92">
+        <v>5</v>
+      </c>
+      <c r="F92" t="s">
+        <v>19</v>
+      </c>
+      <c r="G92" t="s">
+        <v>20</v>
+      </c>
+      <c r="H92" t="s">
+        <v>21</v>
+      </c>
+      <c r="I92" t="s">
+        <v>22</v>
+      </c>
+      <c r="J92">
+        <v>35</v>
+      </c>
+      <c r="K92">
+        <v>0.78</v>
+      </c>
+      <c r="L92">
+        <v>0.39</v>
+      </c>
+      <c r="M92">
+        <v>2</v>
+      </c>
+      <c r="N92">
+        <v>7</v>
+      </c>
+      <c r="O92">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>372</v>
+      </c>
+      <c r="B93" t="s">
+        <v>43</v>
+      </c>
+      <c r="C93" t="s">
+        <v>16</v>
+      </c>
+      <c r="D93" t="s">
+        <v>93</v>
+      </c>
+      <c r="E93">
+        <v>6</v>
+      </c>
+      <c r="F93" t="s">
+        <v>19</v>
+      </c>
+      <c r="G93" t="s">
+        <v>20</v>
+      </c>
+      <c r="H93" t="s">
+        <v>21</v>
+      </c>
+      <c r="I93" t="s">
+        <v>22</v>
+      </c>
+      <c r="J93">
+        <v>35</v>
+      </c>
+      <c r="K93">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="L93">
+        <v>0.45</v>
+      </c>
+      <c r="M93">
+        <v>1.5</v>
+      </c>
+      <c r="N93">
+        <v>7</v>
+      </c>
+      <c r="O93">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>373</v>
+      </c>
+      <c r="B94" t="s">
+        <v>45</v>
+      </c>
+      <c r="C94" t="s">
+        <v>16</v>
+      </c>
+      <c r="D94" t="s">
+        <v>93</v>
+      </c>
+      <c r="E94">
+        <v>7</v>
+      </c>
+      <c r="F94" t="s">
+        <v>19</v>
+      </c>
+      <c r="G94" t="s">
+        <v>20</v>
+      </c>
+      <c r="H94" t="s">
+        <v>21</v>
+      </c>
+      <c r="I94" t="s">
+        <v>22</v>
+      </c>
+      <c r="J94">
+        <v>35</v>
+      </c>
+      <c r="K94">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="L94">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="M94">
+        <v>2</v>
+      </c>
+      <c r="N94">
+        <v>7</v>
+      </c>
+      <c r="O94">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>374</v>
+      </c>
+      <c r="B95" t="s">
+        <v>47</v>
+      </c>
+      <c r="C95" t="s">
+        <v>16</v>
+      </c>
+      <c r="D95" t="s">
+        <v>93</v>
+      </c>
+      <c r="E95">
+        <v>8</v>
+      </c>
+      <c r="F95" t="s">
+        <v>19</v>
+      </c>
+      <c r="G95" t="s">
+        <v>20</v>
+      </c>
+      <c r="H95" t="s">
+        <v>21</v>
+      </c>
+      <c r="I95" t="s">
+        <v>22</v>
+      </c>
+      <c r="J95">
+        <v>35</v>
+      </c>
+      <c r="K95">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="L95">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="M95">
+        <v>1</v>
+      </c>
+      <c r="N95">
+        <v>7</v>
+      </c>
+      <c r="O95">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>375</v>
+      </c>
+      <c r="B96" t="s">
+        <v>49</v>
+      </c>
+      <c r="C96" t="s">
+        <v>16</v>
+      </c>
+      <c r="D96" t="s">
+        <v>93</v>
+      </c>
+      <c r="E96">
+        <v>9</v>
+      </c>
+      <c r="F96" t="s">
+        <v>19</v>
+      </c>
+      <c r="G96" t="s">
+        <v>20</v>
+      </c>
+      <c r="H96" t="s">
+        <v>21</v>
+      </c>
+      <c r="I96" t="s">
+        <v>22</v>
+      </c>
+      <c r="J96">
+        <v>35</v>
+      </c>
+      <c r="K96">
+        <v>0.62749999999999995</v>
+      </c>
+      <c r="L96">
+        <v>0.502</v>
+      </c>
+      <c r="M96">
+        <v>1.25</v>
+      </c>
+      <c r="N96">
+        <v>7</v>
+      </c>
+      <c r="O96">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>338</v>
+      </c>
+      <c r="B97" t="s">
+        <v>64</v>
+      </c>
+      <c r="C97" t="s">
+        <v>16</v>
+      </c>
+      <c r="D97" t="s">
+        <v>93</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="F97" t="s">
+        <v>19</v>
+      </c>
+      <c r="G97" t="s">
+        <v>20</v>
+      </c>
+      <c r="H97" t="s">
+        <v>21</v>
+      </c>
+      <c r="I97" t="s">
+        <v>22</v>
+      </c>
+      <c r="J97">
+        <v>35</v>
+      </c>
+      <c r="K97">
+        <v>2.6974999999999998</v>
+      </c>
+      <c r="L97">
+        <v>0.83</v>
+      </c>
+      <c r="M97">
+        <v>3.25</v>
+      </c>
+      <c r="N97">
+        <v>6</v>
+      </c>
+      <c r="O97">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>339</v>
+      </c>
+      <c r="B98" t="s">
+        <v>66</v>
+      </c>
+      <c r="C98" t="s">
+        <v>16</v>
+      </c>
+      <c r="D98" t="s">
+        <v>93</v>
+      </c>
+      <c r="E98">
+        <v>2</v>
+      </c>
+      <c r="F98" t="s">
+        <v>19</v>
+      </c>
+      <c r="G98" t="s">
+        <v>20</v>
+      </c>
+      <c r="H98" t="s">
+        <v>21</v>
+      </c>
+      <c r="I98" t="s">
+        <v>22</v>
+      </c>
+      <c r="J98">
+        <v>35</v>
+      </c>
+      <c r="K98">
+        <v>6.3</v>
+      </c>
+      <c r="L98">
+        <v>25.2</v>
+      </c>
+      <c r="M98">
         <v>0.25</v>
       </c>
-      <c r="N89">
-        <v>4</v>
-      </c>
-      <c r="O89">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>522</v>
-      </c>
-      <c r="B90" t="s">
-        <v>56</v>
-      </c>
-      <c r="C90" t="s">
-        <v>16</v>
-      </c>
-      <c r="D90" t="s">
-        <v>17</v>
-      </c>
-      <c r="E90" t="s">
-        <v>54</v>
-      </c>
-      <c r="F90" t="s">
-        <v>19</v>
-      </c>
-      <c r="G90" t="s">
-        <v>20</v>
-      </c>
-      <c r="H90" t="s">
-        <v>21</v>
-      </c>
-      <c r="I90" t="s">
-        <v>22</v>
-      </c>
-      <c r="J90">
-        <v>35</v>
-      </c>
-      <c r="K90">
-        <v>0.253</v>
-      </c>
-      <c r="L90">
-        <v>0.50600000000000001</v>
-      </c>
-      <c r="M90">
-        <v>0.5</v>
-      </c>
-      <c r="N90">
-        <v>4</v>
-      </c>
-      <c r="O90">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>523</v>
-      </c>
-      <c r="B91" t="s">
-        <v>58</v>
-      </c>
-      <c r="C91" t="s">
-        <v>16</v>
-      </c>
-      <c r="D91" t="s">
-        <v>17</v>
-      </c>
-      <c r="E91" t="s">
-        <v>55</v>
-      </c>
-      <c r="F91" t="s">
-        <v>19</v>
-      </c>
-      <c r="G91" t="s">
-        <v>20</v>
-      </c>
-      <c r="H91" t="s">
-        <v>21</v>
-      </c>
-      <c r="I91" t="s">
-        <v>22</v>
-      </c>
-      <c r="J91">
-        <v>35</v>
-      </c>
-      <c r="K91">
-        <v>0.316</v>
-      </c>
-      <c r="L91">
-        <v>0.158</v>
-      </c>
-      <c r="M91">
-        <v>2</v>
-      </c>
-      <c r="N91">
-        <v>4</v>
-      </c>
-      <c r="O91">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>524</v>
-      </c>
-      <c r="B92" t="s">
-        <v>62</v>
-      </c>
-      <c r="C92" t="s">
-        <v>16</v>
-      </c>
-      <c r="D92" t="s">
-        <v>32</v>
-      </c>
-      <c r="E92">
-        <v>3</v>
-      </c>
-      <c r="F92" t="s">
-        <v>19</v>
-      </c>
-      <c r="G92" t="s">
-        <v>20</v>
-      </c>
-      <c r="H92" t="s">
-        <v>21</v>
-      </c>
-      <c r="I92" t="s">
-        <v>22</v>
-      </c>
-      <c r="J92">
-        <v>35</v>
-      </c>
-      <c r="K92">
-        <v>0.249</v>
-      </c>
-      <c r="L92">
-        <v>0.16600000000000001</v>
-      </c>
-      <c r="M92">
+      <c r="N98">
+        <v>6</v>
+      </c>
+      <c r="O98">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>454</v>
+      </c>
+      <c r="B99" t="s">
+        <v>66</v>
+      </c>
+      <c r="C99" t="s">
+        <v>16</v>
+      </c>
+      <c r="D99" t="s">
+        <v>50</v>
+      </c>
+      <c r="E99" t="s">
+        <v>24</v>
+      </c>
+      <c r="F99" t="s">
+        <v>19</v>
+      </c>
+      <c r="G99" t="s">
+        <v>20</v>
+      </c>
+      <c r="H99" t="s">
+        <v>37</v>
+      </c>
+      <c r="I99" t="s">
+        <v>38</v>
+      </c>
+      <c r="J99">
+        <v>35</v>
+      </c>
+      <c r="K99">
         <v>1.5</v>
       </c>
-      <c r="N92">
-        <v>2</v>
-      </c>
-      <c r="O92">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>525</v>
-      </c>
-      <c r="B93" t="s">
-        <v>63</v>
-      </c>
-      <c r="C93" t="s">
-        <v>16</v>
-      </c>
-      <c r="D93" t="s">
-        <v>32</v>
-      </c>
-      <c r="E93">
-        <v>4</v>
-      </c>
-      <c r="F93" t="s">
-        <v>19</v>
-      </c>
-      <c r="G93" t="s">
-        <v>20</v>
-      </c>
-      <c r="H93" t="s">
-        <v>21</v>
-      </c>
-      <c r="I93" t="s">
-        <v>22</v>
-      </c>
-      <c r="J93">
-        <v>35</v>
-      </c>
-      <c r="K93">
-        <v>0</v>
-      </c>
-      <c r="L93">
-        <v>0</v>
-      </c>
-      <c r="M93">
-        <v>2.75</v>
-      </c>
-      <c r="N93">
-        <v>2</v>
-      </c>
-      <c r="O93">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>526</v>
-      </c>
-      <c r="B94" t="s">
-        <v>64</v>
-      </c>
-      <c r="C94" t="s">
-        <v>16</v>
-      </c>
-      <c r="D94" t="s">
-        <v>32</v>
-      </c>
-      <c r="E94">
-        <v>5</v>
-      </c>
-      <c r="F94" t="s">
-        <v>19</v>
-      </c>
-      <c r="G94" t="s">
-        <v>20</v>
-      </c>
-      <c r="H94" t="s">
-        <v>21</v>
-      </c>
-      <c r="I94" t="s">
-        <v>22</v>
-      </c>
-      <c r="J94">
-        <v>35</v>
-      </c>
-      <c r="K94">
-        <v>0</v>
-      </c>
-      <c r="L94">
-        <v>0</v>
-      </c>
-      <c r="M94">
-        <v>2.8</v>
-      </c>
-      <c r="N94">
-        <v>3</v>
-      </c>
-      <c r="O94">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>527</v>
-      </c>
-      <c r="B95" t="s">
-        <v>66</v>
-      </c>
-      <c r="C95" t="s">
-        <v>16</v>
-      </c>
-      <c r="D95" t="s">
-        <v>32</v>
-      </c>
-      <c r="E95">
-        <v>6</v>
-      </c>
-      <c r="F95" t="s">
-        <v>19</v>
-      </c>
-      <c r="G95" t="s">
-        <v>20</v>
-      </c>
-      <c r="H95" t="s">
-        <v>21</v>
-      </c>
-      <c r="I95" t="s">
-        <v>22</v>
-      </c>
-      <c r="J95">
-        <v>35</v>
-      </c>
-      <c r="K95">
-        <v>0.27300000000000002</v>
-      </c>
-      <c r="L95">
-        <v>0.36399999999999999</v>
-      </c>
-      <c r="M95">
-        <v>0.75</v>
-      </c>
-      <c r="N95">
-        <v>3</v>
-      </c>
-      <c r="O95">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>528</v>
-      </c>
-      <c r="B96" t="s">
-        <v>29</v>
-      </c>
-      <c r="C96" t="s">
-        <v>16</v>
-      </c>
-      <c r="D96" t="s">
-        <v>32</v>
-      </c>
-      <c r="E96">
-        <v>7</v>
-      </c>
-      <c r="F96" t="s">
-        <v>19</v>
-      </c>
-      <c r="G96" t="s">
-        <v>20</v>
-      </c>
-      <c r="H96" t="s">
-        <v>21</v>
-      </c>
-      <c r="I96" t="s">
-        <v>22</v>
-      </c>
-      <c r="J96">
-        <v>35</v>
-      </c>
-      <c r="K96">
-        <v>0.24360000000000001</v>
-      </c>
-      <c r="L96">
-        <v>0.40600000000000003</v>
-      </c>
-      <c r="M96">
-        <v>0.6</v>
-      </c>
-      <c r="N96">
-        <v>4</v>
-      </c>
-      <c r="O96">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>529</v>
-      </c>
-      <c r="B97" t="s">
-        <v>31</v>
-      </c>
-      <c r="C97" t="s">
-        <v>16</v>
-      </c>
-      <c r="D97" t="s">
-        <v>32</v>
-      </c>
-      <c r="E97">
-        <v>8</v>
-      </c>
-      <c r="F97" t="s">
-        <v>19</v>
-      </c>
-      <c r="G97" t="s">
-        <v>20</v>
-      </c>
-      <c r="H97" t="s">
-        <v>21</v>
-      </c>
-      <c r="I97" t="s">
-        <v>22</v>
-      </c>
-      <c r="J97">
-        <v>35</v>
-      </c>
-      <c r="K97">
-        <v>0.26400000000000001</v>
-      </c>
-      <c r="L97">
-        <v>0.26400000000000001</v>
-      </c>
-      <c r="M97">
-        <v>1</v>
-      </c>
-      <c r="N97">
-        <v>4</v>
-      </c>
-      <c r="O97">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>530</v>
-      </c>
-      <c r="B98" t="s">
-        <v>33</v>
-      </c>
-      <c r="C98" t="s">
-        <v>16</v>
-      </c>
-      <c r="D98" t="s">
-        <v>32</v>
-      </c>
-      <c r="E98">
-        <v>9</v>
-      </c>
-      <c r="F98" t="s">
-        <v>19</v>
-      </c>
-      <c r="G98" t="s">
-        <v>20</v>
-      </c>
-      <c r="H98" t="s">
-        <v>21</v>
-      </c>
-      <c r="I98" t="s">
-        <v>22</v>
-      </c>
-      <c r="J98">
-        <v>35</v>
-      </c>
-      <c r="K98">
-        <v>0.2412</v>
-      </c>
-      <c r="L98">
-        <v>0.40200000000000002</v>
-      </c>
-      <c r="M98">
-        <v>0.6</v>
-      </c>
-      <c r="N98">
-        <v>5</v>
-      </c>
-      <c r="O98">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>531</v>
-      </c>
-      <c r="B99" t="s">
-        <v>64</v>
-      </c>
-      <c r="C99" t="s">
-        <v>16</v>
-      </c>
-      <c r="D99" t="s">
-        <v>32</v>
-      </c>
-      <c r="E99">
-        <v>10</v>
-      </c>
-      <c r="F99" t="s">
-        <v>19</v>
-      </c>
-      <c r="G99" t="s">
-        <v>20</v>
-      </c>
-      <c r="H99" t="s">
-        <v>21</v>
-      </c>
-      <c r="I99" t="s">
-        <v>22</v>
-      </c>
-      <c r="J99">
-        <v>35</v>
-      </c>
-      <c r="K99">
-        <v>0</v>
-      </c>
       <c r="L99">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="M99">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N99">
         <v>5</v>
       </c>
       <c r="O99">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>532</v>
+        <v>455</v>
       </c>
       <c r="B100" t="s">
+        <v>29</v>
+      </c>
+      <c r="C100" t="s">
+        <v>16</v>
+      </c>
+      <c r="D100" t="s">
+        <v>50</v>
+      </c>
+      <c r="E100" t="s">
+        <v>26</v>
+      </c>
+      <c r="F100" t="s">
+        <v>19</v>
+      </c>
+      <c r="G100" t="s">
+        <v>20</v>
+      </c>
+      <c r="H100" t="s">
+        <v>37</v>
+      </c>
+      <c r="I100" t="s">
+        <v>38</v>
+      </c>
+      <c r="J100">
+        <v>35</v>
+      </c>
+      <c r="K100">
+        <v>1.24</v>
+      </c>
+      <c r="L100">
+        <v>2.48</v>
+      </c>
+      <c r="M100">
+        <v>0.5</v>
+      </c>
+      <c r="N100">
+        <v>5</v>
+      </c>
+      <c r="O100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>456</v>
+      </c>
+      <c r="B101" t="s">
         <v>31</v>
       </c>
-      <c r="C100" t="s">
-        <v>16</v>
-      </c>
-      <c r="D100" t="s">
-        <v>78</v>
-      </c>
-      <c r="E100">
-        <v>1</v>
-      </c>
-      <c r="F100" t="s">
-        <v>79</v>
-      </c>
-      <c r="G100" t="s">
-        <v>79</v>
-      </c>
-      <c r="H100" t="s">
-        <v>21</v>
-      </c>
-      <c r="I100" t="s">
-        <v>22</v>
-      </c>
-      <c r="J100">
-        <v>35</v>
-      </c>
-      <c r="K100">
-        <v>0.159</v>
-      </c>
-      <c r="L100">
-        <v>0.106</v>
-      </c>
-      <c r="M100">
-        <v>1.5</v>
-      </c>
-      <c r="N100" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="O100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <v>533</v>
-      </c>
-      <c r="B101" t="s">
+      <c r="C101" t="s">
+        <v>16</v>
+      </c>
+      <c r="D101" t="s">
+        <v>50</v>
+      </c>
+      <c r="E101" t="s">
+        <v>67</v>
+      </c>
+      <c r="F101" t="s">
+        <v>19</v>
+      </c>
+      <c r="G101" t="s">
+        <v>20</v>
+      </c>
+      <c r="H101" t="s">
+        <v>37</v>
+      </c>
+      <c r="I101" t="s">
+        <v>38</v>
+      </c>
+      <c r="J101">
+        <v>35</v>
+      </c>
+      <c r="K101">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="L101">
+        <v>1.87</v>
+      </c>
+      <c r="M101">
+        <v>0.5</v>
+      </c>
+      <c r="N101">
+        <v>5</v>
+      </c>
+      <c r="O101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>457</v>
+      </c>
+      <c r="B102" t="s">
         <v>33</v>
       </c>
-      <c r="C101" t="s">
-        <v>16</v>
-      </c>
-      <c r="D101" t="s">
-        <v>78</v>
-      </c>
-      <c r="E101">
+      <c r="C102" t="s">
+        <v>16</v>
+      </c>
+      <c r="D102" t="s">
+        <v>50</v>
+      </c>
+      <c r="E102" t="s">
+        <v>30</v>
+      </c>
+      <c r="F102" t="s">
+        <v>19</v>
+      </c>
+      <c r="G102" t="s">
+        <v>20</v>
+      </c>
+      <c r="H102" t="s">
+        <v>37</v>
+      </c>
+      <c r="I102" t="s">
+        <v>38</v>
+      </c>
+      <c r="J102">
+        <v>35</v>
+      </c>
+      <c r="K102">
+        <v>1.02</v>
+      </c>
+      <c r="L102">
+        <v>2.04</v>
+      </c>
+      <c r="M102">
+        <v>0.5</v>
+      </c>
+      <c r="N102">
+        <v>5</v>
+      </c>
+      <c r="O102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>443</v>
+      </c>
+      <c r="B103" t="s">
+        <v>23</v>
+      </c>
+      <c r="C103" t="s">
+        <v>16</v>
+      </c>
+      <c r="D103" t="s">
+        <v>50</v>
+      </c>
+      <c r="E103" t="s">
+        <v>53</v>
+      </c>
+      <c r="F103" t="s">
+        <v>19</v>
+      </c>
+      <c r="G103" t="s">
+        <v>20</v>
+      </c>
+      <c r="H103" t="s">
+        <v>37</v>
+      </c>
+      <c r="I103" t="s">
+        <v>38</v>
+      </c>
+      <c r="J103">
+        <v>35</v>
+      </c>
+      <c r="K103">
+        <v>1.26</v>
+      </c>
+      <c r="L103">
+        <v>2.52</v>
+      </c>
+      <c r="M103">
+        <v>0.5</v>
+      </c>
+      <c r="N103">
+        <v>4</v>
+      </c>
+      <c r="O103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>444</v>
+      </c>
+      <c r="B104" t="s">
+        <v>25</v>
+      </c>
+      <c r="C104" t="s">
+        <v>16</v>
+      </c>
+      <c r="D104" t="s">
+        <v>50</v>
+      </c>
+      <c r="E104" t="s">
+        <v>54</v>
+      </c>
+      <c r="F104" t="s">
+        <v>19</v>
+      </c>
+      <c r="G104" t="s">
+        <v>20</v>
+      </c>
+      <c r="H104" t="s">
+        <v>37</v>
+      </c>
+      <c r="I104" t="s">
+        <v>38</v>
+      </c>
+      <c r="J104">
+        <v>35</v>
+      </c>
+      <c r="K104">
+        <v>1.31</v>
+      </c>
+      <c r="L104">
+        <v>2.62</v>
+      </c>
+      <c r="M104">
+        <v>0.5</v>
+      </c>
+      <c r="N104">
+        <v>4</v>
+      </c>
+      <c r="O104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>445</v>
+      </c>
+      <c r="B105" t="s">
+        <v>27</v>
+      </c>
+      <c r="C105" t="s">
+        <v>16</v>
+      </c>
+      <c r="D105" t="s">
+        <v>50</v>
+      </c>
+      <c r="E105" t="s">
+        <v>55</v>
+      </c>
+      <c r="F105" t="s">
+        <v>19</v>
+      </c>
+      <c r="G105" t="s">
+        <v>20</v>
+      </c>
+      <c r="H105" t="s">
+        <v>37</v>
+      </c>
+      <c r="I105" t="s">
+        <v>38</v>
+      </c>
+      <c r="J105">
+        <v>35</v>
+      </c>
+      <c r="K105">
+        <v>2.42</v>
+      </c>
+      <c r="L105">
+        <v>2.42</v>
+      </c>
+      <c r="M105">
+        <v>1</v>
+      </c>
+      <c r="N105">
+        <v>4</v>
+      </c>
+      <c r="O105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>469</v>
+      </c>
+      <c r="B106" t="s">
+        <v>27</v>
+      </c>
+      <c r="C106" t="s">
+        <v>16</v>
+      </c>
+      <c r="D106" t="s">
+        <v>50</v>
+      </c>
+      <c r="E106" t="s">
+        <v>18</v>
+      </c>
+      <c r="F106" t="s">
+        <v>19</v>
+      </c>
+      <c r="G106" t="s">
+        <v>20</v>
+      </c>
+      <c r="H106" t="s">
+        <v>37</v>
+      </c>
+      <c r="I106" t="s">
+        <v>38</v>
+      </c>
+      <c r="J106">
+        <v>35</v>
+      </c>
+      <c r="K106">
+        <v>1.89</v>
+      </c>
+      <c r="L106">
+        <v>1.89</v>
+      </c>
+      <c r="M106">
+        <v>1</v>
+      </c>
+      <c r="N106">
+        <v>4</v>
+      </c>
+      <c r="O106">
         <v>2</v>
       </c>
-      <c r="F101" t="s">
-        <v>79</v>
-      </c>
-      <c r="G101" t="s">
-        <v>79</v>
-      </c>
-      <c r="H101" t="s">
-        <v>21</v>
-      </c>
-      <c r="I101" t="s">
-        <v>22</v>
-      </c>
-      <c r="J101">
-        <v>35</v>
-      </c>
-      <c r="K101">
-        <v>0.36399999999999999</v>
-      </c>
-      <c r="L101">
-        <v>0.36399999999999999</v>
-      </c>
-      <c r="M101">
-        <v>1</v>
-      </c>
-      <c r="N101" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="O101">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <v>534</v>
-      </c>
-      <c r="B102" t="s">
-        <v>56</v>
-      </c>
-      <c r="C102" t="s">
-        <v>16</v>
-      </c>
-      <c r="D102" t="s">
-        <v>78</v>
-      </c>
-      <c r="E102">
-        <v>3</v>
-      </c>
-      <c r="F102" t="s">
-        <v>79</v>
-      </c>
-      <c r="G102" t="s">
-        <v>79</v>
-      </c>
-      <c r="H102" t="s">
-        <v>21</v>
-      </c>
-      <c r="I102" t="s">
-        <v>22</v>
-      </c>
-      <c r="J102">
-        <v>35</v>
-      </c>
-      <c r="K102">
-        <v>0.17599999999999999</v>
-      </c>
-      <c r="L102">
-        <v>0.17599999999999999</v>
-      </c>
-      <c r="M102">
-        <v>1</v>
-      </c>
-      <c r="N102" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="O102">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <v>535</v>
-      </c>
-      <c r="B103" t="s">
-        <v>51</v>
-      </c>
-      <c r="C103" t="s">
-        <v>16</v>
-      </c>
-      <c r="D103" t="s">
-        <v>78</v>
-      </c>
-      <c r="E103">
-        <v>4</v>
-      </c>
-      <c r="F103" t="s">
-        <v>79</v>
-      </c>
-      <c r="G103" t="s">
-        <v>79</v>
-      </c>
-      <c r="H103" t="s">
-        <v>21</v>
-      </c>
-      <c r="I103" t="s">
-        <v>22</v>
-      </c>
-      <c r="J103">
-        <v>35</v>
-      </c>
-      <c r="K103">
-        <v>0.33200000000000002</v>
-      </c>
-      <c r="L103">
-        <v>0.33200000000000002</v>
-      </c>
-      <c r="M103">
-        <v>1</v>
-      </c>
-      <c r="N103" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="O103">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A104">
-        <v>536</v>
-      </c>
-      <c r="B104" t="s">
-        <v>15</v>
-      </c>
-      <c r="C104" t="s">
-        <v>16</v>
-      </c>
-      <c r="D104" t="s">
-        <v>78</v>
-      </c>
-      <c r="E104">
-        <v>5</v>
-      </c>
-      <c r="F104" t="s">
-        <v>79</v>
-      </c>
-      <c r="G104" t="s">
-        <v>79</v>
-      </c>
-      <c r="H104" t="s">
-        <v>21</v>
-      </c>
-      <c r="I104" t="s">
-        <v>22</v>
-      </c>
-      <c r="J104">
-        <v>35</v>
-      </c>
-      <c r="K104">
-        <v>0.22600000000000001</v>
-      </c>
-      <c r="L104">
-        <v>0.22600000000000001</v>
-      </c>
-      <c r="M104">
-        <v>1</v>
-      </c>
-      <c r="N104" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="O104">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A105">
-        <v>537</v>
-      </c>
-      <c r="B105" t="s">
-        <v>61</v>
-      </c>
-      <c r="C105" t="s">
-        <v>16</v>
-      </c>
-      <c r="D105" t="s">
-        <v>78</v>
-      </c>
-      <c r="E105">
-        <v>6</v>
-      </c>
-      <c r="F105" t="s">
-        <v>79</v>
-      </c>
-      <c r="G105" t="s">
-        <v>79</v>
-      </c>
-      <c r="H105" t="s">
-        <v>21</v>
-      </c>
-      <c r="I105" t="s">
-        <v>22</v>
-      </c>
-      <c r="J105">
-        <v>35</v>
-      </c>
-      <c r="K105">
-        <v>0.32600000000000001</v>
-      </c>
-      <c r="L105">
-        <v>0.65200000000000002</v>
-      </c>
-      <c r="M105">
-        <v>0.5</v>
-      </c>
-      <c r="N105" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="O105">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A106">
-        <v>538</v>
-      </c>
-      <c r="B106" t="s">
-        <v>66</v>
-      </c>
-      <c r="C106" t="s">
-        <v>16</v>
-      </c>
-      <c r="D106" t="s">
-        <v>78</v>
-      </c>
-      <c r="E106">
-        <v>7</v>
-      </c>
-      <c r="F106" t="s">
-        <v>79</v>
-      </c>
-      <c r="G106" t="s">
-        <v>79</v>
-      </c>
-      <c r="H106" t="s">
-        <v>21</v>
-      </c>
-      <c r="I106" t="s">
-        <v>22</v>
-      </c>
-      <c r="J106">
-        <v>35</v>
-      </c>
-      <c r="K106">
-        <v>0.192</v>
-      </c>
-      <c r="L106">
-        <v>0.192</v>
-      </c>
-      <c r="M106">
-        <v>1</v>
-      </c>
-      <c r="N106" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="O106">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>539</v>
+        <v>481</v>
       </c>
       <c r="B107" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C107" t="s">
         <v>16</v>
       </c>
       <c r="D107" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="E107" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="F107" t="s">
         <v>19</v>
@@ -5697,45 +5698,45 @@
         <v>20</v>
       </c>
       <c r="H107" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I107" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="J107">
         <v>35</v>
       </c>
       <c r="K107">
-        <v>0</v>
+        <v>0.248</v>
       </c>
       <c r="L107">
-        <v>0</v>
+        <v>0.248</v>
       </c>
       <c r="M107">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N107">
         <v>4</v>
       </c>
       <c r="O107">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>540</v>
+        <v>440</v>
       </c>
       <c r="B108" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="C108" t="s">
         <v>16</v>
       </c>
       <c r="D108" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="E108" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="F108" t="s">
         <v>19</v>
@@ -5744,45 +5745,45 @@
         <v>20</v>
       </c>
       <c r="H108" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I108" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="J108">
         <v>35</v>
       </c>
       <c r="K108">
-        <v>0.438</v>
+        <v>1.73</v>
       </c>
       <c r="L108">
-        <v>0.438</v>
+        <v>1.73</v>
       </c>
       <c r="M108">
         <v>1</v>
       </c>
       <c r="N108">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O108">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>541</v>
+        <v>441</v>
       </c>
       <c r="B109" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="C109" t="s">
         <v>16</v>
       </c>
       <c r="D109" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="E109" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="F109" t="s">
         <v>19</v>
@@ -5791,45 +5792,45 @@
         <v>20</v>
       </c>
       <c r="H109" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I109" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="J109">
         <v>35</v>
       </c>
       <c r="K109">
-        <v>0.53800000000000003</v>
+        <v>1.82</v>
       </c>
       <c r="L109">
-        <v>0.53800000000000003</v>
+        <v>1.82</v>
       </c>
       <c r="M109">
         <v>1</v>
       </c>
       <c r="N109">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O109">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>542</v>
+        <v>442</v>
       </c>
       <c r="B110" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C110" t="s">
         <v>16</v>
       </c>
       <c r="D110" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="E110" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="F110" t="s">
         <v>19</v>
@@ -5838,45 +5839,45 @@
         <v>20</v>
       </c>
       <c r="H110" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I110" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="J110">
         <v>35</v>
       </c>
       <c r="K110">
-        <v>4.6500000000000004</v>
+        <v>2.16</v>
       </c>
       <c r="L110">
-        <v>18.600000000000001</v>
+        <v>2.16</v>
       </c>
       <c r="M110">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="N110">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O110">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>543</v>
+        <v>453</v>
       </c>
       <c r="B111" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="C111" t="s">
         <v>16</v>
       </c>
       <c r="D111" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="E111" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="F111" t="s">
         <v>19</v>
@@ -5885,33 +5886,33 @@
         <v>20</v>
       </c>
       <c r="H111" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I111" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="J111">
         <v>35</v>
       </c>
       <c r="K111">
-        <v>0.217</v>
+        <v>1.59</v>
       </c>
       <c r="L111">
-        <v>0.124</v>
+        <v>1.59</v>
       </c>
       <c r="M111">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="N111">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O111">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>544</v>
+        <v>480</v>
       </c>
       <c r="B112" t="s">
         <v>31</v>
@@ -5920,10 +5921,10 @@
         <v>16</v>
       </c>
       <c r="D112" t="s">
-        <v>32</v>
-      </c>
-      <c r="E112">
-        <v>1</v>
+        <v>50</v>
+      </c>
+      <c r="E112" t="s">
+        <v>74</v>
       </c>
       <c r="F112" t="s">
         <v>19</v>
@@ -5932,92 +5933,92 @@
         <v>20</v>
       </c>
       <c r="H112" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I112" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="J112">
         <v>35</v>
       </c>
       <c r="K112">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="L112">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="M112">
+        <v>1</v>
+      </c>
+      <c r="N112">
+        <v>3</v>
+      </c>
+      <c r="O112">
         <v>2</v>
       </c>
-      <c r="N112">
-        <v>1</v>
-      </c>
-      <c r="O112">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>545</v>
+        <v>466</v>
       </c>
       <c r="B113" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C113" t="s">
         <v>16</v>
       </c>
       <c r="D113" t="s">
-        <v>32</v>
-      </c>
-      <c r="E113">
+        <v>50</v>
+      </c>
+      <c r="E113" t="s">
+        <v>68</v>
+      </c>
+      <c r="F113" t="s">
+        <v>19</v>
+      </c>
+      <c r="G113" t="s">
+        <v>20</v>
+      </c>
+      <c r="H113" t="s">
+        <v>37</v>
+      </c>
+      <c r="I113" t="s">
+        <v>38</v>
+      </c>
+      <c r="J113">
+        <v>35</v>
+      </c>
+      <c r="K113">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="L113">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="M113">
+        <v>1</v>
+      </c>
+      <c r="N113">
         <v>2</v>
       </c>
-      <c r="F113" t="s">
-        <v>19</v>
-      </c>
-      <c r="G113" t="s">
-        <v>20</v>
-      </c>
-      <c r="H113" t="s">
-        <v>21</v>
-      </c>
-      <c r="I113" t="s">
-        <v>22</v>
-      </c>
-      <c r="J113">
-        <v>35</v>
-      </c>
-      <c r="K113">
-        <v>0</v>
-      </c>
-      <c r="L113">
-        <v>0</v>
-      </c>
-      <c r="M113">
+      <c r="O113">
         <v>2</v>
       </c>
-      <c r="N113">
-        <v>1</v>
-      </c>
-      <c r="O113">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>326</v>
+        <v>467</v>
       </c>
       <c r="B114" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="C114" t="s">
         <v>16</v>
       </c>
       <c r="D114" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="E114" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="F114" t="s">
         <v>19</v>
@@ -6035,36 +6036,36 @@
         <v>35</v>
       </c>
       <c r="K114">
-        <v>3.4649999999999999</v>
+        <v>1.33</v>
       </c>
       <c r="L114">
-        <v>4.62</v>
+        <v>1.33</v>
       </c>
       <c r="M114">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="N114">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O114">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>327</v>
+        <v>468</v>
       </c>
       <c r="B115" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C115" t="s">
         <v>16</v>
       </c>
       <c r="D115" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="E115" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="F115" t="s">
         <v>19</v>
@@ -6082,36 +6083,36 @@
         <v>35</v>
       </c>
       <c r="K115">
-        <v>3.76</v>
+        <v>1.73</v>
       </c>
       <c r="L115">
-        <v>3.76</v>
+        <v>1.73</v>
       </c>
       <c r="M115">
         <v>1</v>
       </c>
       <c r="N115">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O115">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>328</v>
+        <v>478</v>
       </c>
       <c r="B116" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="C116" t="s">
         <v>16</v>
       </c>
       <c r="D116" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="E116" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="F116" t="s">
         <v>19</v>
@@ -6129,36 +6130,36 @@
         <v>35</v>
       </c>
       <c r="K116">
-        <v>3.9</v>
+        <v>1.07</v>
       </c>
       <c r="L116">
-        <v>3.9</v>
+        <v>1.07</v>
       </c>
       <c r="M116">
         <v>1</v>
       </c>
       <c r="N116">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O116">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>329</v>
+        <v>479</v>
       </c>
       <c r="B117" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C117" t="s">
         <v>16</v>
       </c>
       <c r="D117" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="E117" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="F117" t="s">
         <v>19</v>
@@ -6176,36 +6177,36 @@
         <v>35</v>
       </c>
       <c r="K117">
-        <v>3.39</v>
+        <v>1.1174999999999999</v>
       </c>
       <c r="L117">
-        <v>6.78</v>
+        <v>1.49</v>
       </c>
       <c r="M117">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="N117">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O117">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>330</v>
+        <v>452</v>
       </c>
       <c r="B118" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="C118" t="s">
         <v>16</v>
       </c>
       <c r="D118" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="E118" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="F118" t="s">
         <v>19</v>
@@ -6223,36 +6224,36 @@
         <v>35</v>
       </c>
       <c r="K118">
-        <v>3</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="L118">
-        <v>3</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="M118">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N118">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="O118">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>331</v>
+        <v>464</v>
       </c>
       <c r="B119" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C119" t="s">
         <v>16</v>
       </c>
       <c r="D119" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="E119" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="F119" t="s">
         <v>19</v>
@@ -6264,42 +6265,42 @@
         <v>37</v>
       </c>
       <c r="I119" t="s">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="J119">
         <v>35</v>
       </c>
       <c r="K119">
-        <v>3.2250000000000001</v>
+        <v>1.56</v>
       </c>
       <c r="L119">
-        <v>2.58</v>
+        <v>1.56</v>
       </c>
       <c r="M119">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="N119">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="O119">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>332</v>
+        <v>465</v>
       </c>
       <c r="B120" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C120" t="s">
         <v>16</v>
       </c>
       <c r="D120" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="E120" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="F120" t="s">
         <v>19</v>
@@ -6317,36 +6318,36 @@
         <v>35</v>
       </c>
       <c r="K120">
-        <v>2.8</v>
+        <v>2.52</v>
       </c>
       <c r="L120">
-        <v>5.6</v>
+        <v>2.52</v>
       </c>
       <c r="M120">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="N120">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="O120">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>333</v>
+        <v>476</v>
       </c>
       <c r="B121" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C121" t="s">
         <v>16</v>
       </c>
       <c r="D121" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="E121" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="F121" t="s">
         <v>19</v>
@@ -6364,36 +6365,36 @@
         <v>35</v>
       </c>
       <c r="K121">
-        <v>3.76</v>
+        <v>1.2450000000000001</v>
       </c>
       <c r="L121">
-        <v>7.52</v>
+        <v>1.66</v>
       </c>
       <c r="M121">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="N121">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="O121">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>334</v>
+        <v>477</v>
       </c>
       <c r="B122" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C122" t="s">
         <v>16</v>
       </c>
       <c r="D122" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="E122" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="F122" t="s">
         <v>19</v>
@@ -6411,36 +6412,36 @@
         <v>35</v>
       </c>
       <c r="K122">
-        <v>3.4</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="L122">
-        <v>2.72</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="M122">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="N122">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="O122">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="B123" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="C123" t="s">
         <v>16</v>
       </c>
       <c r="D123" t="s">
-        <v>35</v>
-      </c>
-      <c r="E123" t="s">
-        <v>91</v>
+        <v>32</v>
+      </c>
+      <c r="E123">
+        <v>1</v>
       </c>
       <c r="F123" t="s">
         <v>19</v>
@@ -6449,22 +6450,22 @@
         <v>20</v>
       </c>
       <c r="H123" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I123" t="s">
-        <v>92</v>
+        <v>22</v>
       </c>
       <c r="J123">
         <v>35</v>
       </c>
       <c r="K123">
-        <v>3.87</v>
+        <v>0.91649999999999998</v>
       </c>
       <c r="L123">
-        <v>1.72</v>
+        <v>0.28199999999999997</v>
       </c>
       <c r="M123">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="N123">
         <v>6</v>
@@ -6473,21 +6474,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B124" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="C124" t="s">
         <v>16</v>
       </c>
       <c r="D124" t="s">
-        <v>93</v>
+        <v>32</v>
       </c>
       <c r="E124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F124" t="s">
         <v>19</v>
@@ -6505,10 +6506,10 @@
         <v>35</v>
       </c>
       <c r="K124">
-        <v>2.6974999999999998</v>
+        <v>1.7224999999999999</v>
       </c>
       <c r="L124">
-        <v>0.83</v>
+        <v>0.53</v>
       </c>
       <c r="M124">
         <v>3.25</v>
@@ -6520,21 +6521,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>339</v>
+        <v>530</v>
       </c>
       <c r="B125" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="C125" t="s">
         <v>16</v>
       </c>
       <c r="D125" t="s">
-        <v>93</v>
+        <v>32</v>
       </c>
       <c r="E125">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F125" t="s">
         <v>19</v>
@@ -6552,27 +6553,27 @@
         <v>35</v>
       </c>
       <c r="K125">
-        <v>6.3</v>
+        <v>0.2412</v>
       </c>
       <c r="L125">
-        <v>25.2</v>
+        <v>0.40200000000000002</v>
       </c>
       <c r="M125">
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
       <c r="N125">
+        <v>5</v>
+      </c>
+      <c r="O125">
         <v>6</v>
       </c>
-      <c r="O125">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>340</v>
+        <v>531</v>
       </c>
       <c r="B126" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="C126" t="s">
         <v>16</v>
@@ -6581,7 +6582,7 @@
         <v>32</v>
       </c>
       <c r="E126">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F126" t="s">
         <v>19</v>
@@ -6599,27 +6600,27 @@
         <v>35</v>
       </c>
       <c r="K126">
-        <v>0.91649999999999998</v>
+        <v>0</v>
       </c>
       <c r="L126">
-        <v>0.28199999999999997</v>
+        <v>0</v>
       </c>
       <c r="M126">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N126">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O126">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>341</v>
+        <v>528</v>
       </c>
       <c r="B127" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C127" t="s">
         <v>16</v>
@@ -6628,7 +6629,7 @@
         <v>32</v>
       </c>
       <c r="E127">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F127" t="s">
         <v>19</v>
@@ -6646,130 +6647,130 @@
         <v>35</v>
       </c>
       <c r="K127">
-        <v>1.7224999999999999</v>
+        <v>0.24360000000000001</v>
       </c>
       <c r="L127">
-        <v>0.53</v>
+        <v>0.40600000000000003</v>
       </c>
       <c r="M127">
-        <v>3.25</v>
+        <v>0.6</v>
       </c>
       <c r="N127">
+        <v>4</v>
+      </c>
+      <c r="O127">
         <v>6</v>
       </c>
-      <c r="O127">
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>529</v>
+      </c>
+      <c r="B128" t="s">
+        <v>31</v>
+      </c>
+      <c r="C128" t="s">
+        <v>16</v>
+      </c>
+      <c r="D128" t="s">
+        <v>32</v>
+      </c>
+      <c r="E128">
         <v>8</v>
       </c>
-    </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A128">
-        <v>369</v>
-      </c>
-      <c r="B128" t="s">
-        <v>34</v>
-      </c>
-      <c r="C128" t="s">
-        <v>16</v>
-      </c>
-      <c r="D128" t="s">
-        <v>93</v>
-      </c>
-      <c r="E128">
+      <c r="F128" t="s">
+        <v>19</v>
+      </c>
+      <c r="G128" t="s">
+        <v>20</v>
+      </c>
+      <c r="H128" t="s">
+        <v>21</v>
+      </c>
+      <c r="I128" t="s">
+        <v>22</v>
+      </c>
+      <c r="J128">
+        <v>35</v>
+      </c>
+      <c r="K128">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="L128">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="M128">
+        <v>1</v>
+      </c>
+      <c r="N128">
+        <v>4</v>
+      </c>
+      <c r="O128">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>526</v>
+      </c>
+      <c r="B129" t="s">
+        <v>64</v>
+      </c>
+      <c r="C129" t="s">
+        <v>16</v>
+      </c>
+      <c r="D129" t="s">
+        <v>32</v>
+      </c>
+      <c r="E129">
+        <v>5</v>
+      </c>
+      <c r="F129" t="s">
+        <v>19</v>
+      </c>
+      <c r="G129" t="s">
+        <v>20</v>
+      </c>
+      <c r="H129" t="s">
+        <v>21</v>
+      </c>
+      <c r="I129" t="s">
+        <v>22</v>
+      </c>
+      <c r="J129">
+        <v>35</v>
+      </c>
+      <c r="K129">
+        <v>0</v>
+      </c>
+      <c r="L129">
+        <v>0</v>
+      </c>
+      <c r="M129">
+        <v>2.8</v>
+      </c>
+      <c r="N129">
         <v>3</v>
       </c>
-      <c r="F128" t="s">
-        <v>19</v>
-      </c>
-      <c r="G128" t="s">
-        <v>20</v>
-      </c>
-      <c r="H128" t="s">
-        <v>21</v>
-      </c>
-      <c r="I128" t="s">
-        <v>22</v>
-      </c>
-      <c r="J128">
-        <v>35</v>
-      </c>
-      <c r="K128">
-        <v>0.60160000000000002</v>
-      </c>
-      <c r="L128">
-        <v>0.752</v>
-      </c>
-      <c r="M128">
-        <v>0.8</v>
-      </c>
-      <c r="N128">
-        <v>7</v>
-      </c>
-      <c r="O128">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A129">
-        <v>370</v>
-      </c>
-      <c r="B129" t="s">
-        <v>39</v>
-      </c>
-      <c r="C129" t="s">
-        <v>16</v>
-      </c>
-      <c r="D129" t="s">
-        <v>93</v>
-      </c>
-      <c r="E129">
-        <v>4</v>
-      </c>
-      <c r="F129" t="s">
-        <v>19</v>
-      </c>
-      <c r="G129" t="s">
-        <v>20</v>
-      </c>
-      <c r="H129" t="s">
-        <v>21</v>
-      </c>
-      <c r="I129" t="s">
-        <v>22</v>
-      </c>
-      <c r="J129">
-        <v>35</v>
-      </c>
-      <c r="K129">
-        <v>0.68149999999999999</v>
-      </c>
-      <c r="L129">
-        <v>0.47</v>
-      </c>
-      <c r="M129">
-        <v>1.45</v>
-      </c>
-      <c r="N129">
-        <v>7</v>
-      </c>
       <c r="O129">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>371</v>
+        <v>527</v>
       </c>
       <c r="B130" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="C130" t="s">
         <v>16</v>
       </c>
       <c r="D130" t="s">
-        <v>93</v>
+        <v>32</v>
       </c>
       <c r="E130">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F130" t="s">
         <v>19</v>
@@ -6787,36 +6788,36 @@
         <v>35</v>
       </c>
       <c r="K130">
-        <v>0.78</v>
+        <v>0.27300000000000002</v>
       </c>
       <c r="L130">
-        <v>0.39</v>
+        <v>0.36399999999999999</v>
       </c>
       <c r="M130">
-        <v>2</v>
+        <v>0.75</v>
       </c>
       <c r="N130">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="O130">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>372</v>
+        <v>524</v>
       </c>
       <c r="B131" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="C131" t="s">
         <v>16</v>
       </c>
       <c r="D131" t="s">
-        <v>93</v>
+        <v>32</v>
       </c>
       <c r="E131">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F131" t="s">
         <v>19</v>
@@ -6834,163 +6835,166 @@
         <v>35</v>
       </c>
       <c r="K131">
-        <v>0.67500000000000004</v>
+        <v>0.249</v>
       </c>
       <c r="L131">
-        <v>0.45</v>
+        <v>0.16600000000000001</v>
       </c>
       <c r="M131">
         <v>1.5</v>
       </c>
       <c r="N131">
+        <v>2</v>
+      </c>
+      <c r="O131">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>525</v>
+      </c>
+      <c r="B132" t="s">
+        <v>63</v>
+      </c>
+      <c r="C132" t="s">
+        <v>16</v>
+      </c>
+      <c r="D132" t="s">
+        <v>32</v>
+      </c>
+      <c r="E132">
+        <v>4</v>
+      </c>
+      <c r="F132" t="s">
+        <v>19</v>
+      </c>
+      <c r="G132" t="s">
+        <v>20</v>
+      </c>
+      <c r="H132" t="s">
+        <v>21</v>
+      </c>
+      <c r="I132" t="s">
+        <v>22</v>
+      </c>
+      <c r="J132">
+        <v>35</v>
+      </c>
+      <c r="K132">
+        <v>0</v>
+      </c>
+      <c r="L132">
+        <v>0</v>
+      </c>
+      <c r="M132">
+        <v>2.75</v>
+      </c>
+      <c r="N132">
+        <v>2</v>
+      </c>
+      <c r="O132">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>544</v>
+      </c>
+      <c r="B133" t="s">
+        <v>31</v>
+      </c>
+      <c r="C133" t="s">
+        <v>16</v>
+      </c>
+      <c r="D133" t="s">
+        <v>32</v>
+      </c>
+      <c r="E133">
+        <v>1</v>
+      </c>
+      <c r="F133" t="s">
+        <v>19</v>
+      </c>
+      <c r="G133" t="s">
+        <v>20</v>
+      </c>
+      <c r="H133" t="s">
+        <v>21</v>
+      </c>
+      <c r="I133" t="s">
+        <v>22</v>
+      </c>
+      <c r="J133">
+        <v>35</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+      <c r="L133">
+        <v>0</v>
+      </c>
+      <c r="M133">
+        <v>2</v>
+      </c>
+      <c r="N133">
+        <v>1</v>
+      </c>
+      <c r="O133">
         <v>7</v>
       </c>
-      <c r="O131">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A132">
-        <v>373</v>
-      </c>
-      <c r="B132" t="s">
-        <v>45</v>
-      </c>
-      <c r="C132" t="s">
-        <v>16</v>
-      </c>
-      <c r="D132" t="s">
-        <v>93</v>
-      </c>
-      <c r="E132">
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>545</v>
+      </c>
+      <c r="B134" t="s">
+        <v>33</v>
+      </c>
+      <c r="C134" t="s">
+        <v>16</v>
+      </c>
+      <c r="D134" t="s">
+        <v>32</v>
+      </c>
+      <c r="E134">
+        <v>2</v>
+      </c>
+      <c r="F134" t="s">
+        <v>19</v>
+      </c>
+      <c r="G134" t="s">
+        <v>20</v>
+      </c>
+      <c r="H134" t="s">
+        <v>21</v>
+      </c>
+      <c r="I134" t="s">
+        <v>22</v>
+      </c>
+      <c r="J134">
+        <v>35</v>
+      </c>
+      <c r="K134">
+        <v>0</v>
+      </c>
+      <c r="L134">
+        <v>0</v>
+      </c>
+      <c r="M134">
+        <v>2</v>
+      </c>
+      <c r="N134">
+        <v>1</v>
+      </c>
+      <c r="O134">
         <v>7</v>
       </c>
-      <c r="F132" t="s">
-        <v>19</v>
-      </c>
-      <c r="G132" t="s">
-        <v>20</v>
-      </c>
-      <c r="H132" t="s">
-        <v>21</v>
-      </c>
-      <c r="I132" t="s">
-        <v>22</v>
-      </c>
-      <c r="J132">
-        <v>35</v>
-      </c>
-      <c r="K132">
-        <v>0.70399999999999996</v>
-      </c>
-      <c r="L132">
-        <v>0.35199999999999998</v>
-      </c>
-      <c r="M132">
-        <v>2</v>
-      </c>
-      <c r="N132">
-        <v>7</v>
-      </c>
-      <c r="O132">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A133">
-        <v>374</v>
-      </c>
-      <c r="B133" t="s">
-        <v>47</v>
-      </c>
-      <c r="C133" t="s">
-        <v>16</v>
-      </c>
-      <c r="D133" t="s">
-        <v>93</v>
-      </c>
-      <c r="E133">
-        <v>8</v>
-      </c>
-      <c r="F133" t="s">
-        <v>19</v>
-      </c>
-      <c r="G133" t="s">
-        <v>20</v>
-      </c>
-      <c r="H133" t="s">
-        <v>21</v>
-      </c>
-      <c r="I133" t="s">
-        <v>22</v>
-      </c>
-      <c r="J133">
-        <v>35</v>
-      </c>
-      <c r="K133">
-        <v>0.60399999999999998</v>
-      </c>
-      <c r="L133">
-        <v>0.60399999999999998</v>
-      </c>
-      <c r="M133">
-        <v>1</v>
-      </c>
-      <c r="N133">
-        <v>7</v>
-      </c>
-      <c r="O133">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A134">
-        <v>375</v>
-      </c>
-      <c r="B134" t="s">
-        <v>49</v>
-      </c>
-      <c r="C134" t="s">
-        <v>16</v>
-      </c>
-      <c r="D134" t="s">
-        <v>93</v>
-      </c>
-      <c r="E134">
-        <v>9</v>
-      </c>
-      <c r="F134" t="s">
-        <v>19</v>
-      </c>
-      <c r="G134" t="s">
-        <v>20</v>
-      </c>
-      <c r="H134" t="s">
-        <v>21</v>
-      </c>
-      <c r="I134" t="s">
-        <v>22</v>
-      </c>
-      <c r="J134">
-        <v>35</v>
-      </c>
-      <c r="K134">
-        <v>0.62749999999999995</v>
-      </c>
-      <c r="L134">
-        <v>0.502</v>
-      </c>
-      <c r="M134">
-        <v>1.25</v>
-      </c>
-      <c r="N134">
-        <v>7</v>
-      </c>
-      <c r="O134">
-        <v>9</v>
-      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O134">
+    <sortCondition descending="1" ref="D1:D134"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
